--- a/raw_data/20200818_saline/20200818_Sensor1_Test_83.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_83.xlsx
@@ -1,1716 +1,2132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0608FED2-B6EB-4B6A-9256-79FD957248CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>73987.820148</v>
+        <v>73987.820147999999</v>
       </c>
       <c r="B2" s="1">
-        <v>20.552172</v>
+        <v>20.552171999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>902.134000</v>
+        <v>902.13400000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-195.331000</v>
+        <v>-195.33099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>73998.210772</v>
+        <v>73998.210772000006</v>
       </c>
       <c r="G2" s="1">
         <v>20.555059</v>
       </c>
       <c r="H2" s="1">
-        <v>919.653000</v>
+        <v>919.65300000000002</v>
       </c>
       <c r="I2" s="1">
-        <v>-165.962000</v>
+        <v>-165.96199999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>74009.051820</v>
+        <v>74009.051819999993</v>
       </c>
       <c r="L2" s="1">
-        <v>20.558070</v>
+        <v>20.558070000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>943.261000</v>
+        <v>943.26099999999997</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.567000</v>
+        <v>-119.56699999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>74019.581388</v>
+        <v>74019.581388000006</v>
       </c>
       <c r="Q2" s="1">
-        <v>20.560995</v>
+        <v>20.560994999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>950.389000</v>
+        <v>950.38900000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.834000</v>
+        <v>-103.834</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>74029.919999</v>
+        <v>74029.919999000005</v>
       </c>
       <c r="V2" s="1">
-        <v>20.563867</v>
+        <v>20.563866999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>957.456000</v>
+        <v>957.45600000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.139200</v>
+        <v>-89.139200000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>74040.007668</v>
+        <v>74040.007668000006</v>
       </c>
       <c r="AA2" s="1">
-        <v>20.566669</v>
+        <v>20.566669000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>965.264000</v>
+        <v>965.26400000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.432400</v>
+        <v>-77.432400000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>74050.273333</v>
+        <v>74050.273333000005</v>
       </c>
       <c r="AF2" s="1">
-        <v>20.569520</v>
+        <v>20.569520000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>970.318000</v>
+        <v>970.31799999999998</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.260200</v>
+        <v>-75.260199999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>74060.389271</v>
+        <v>74060.389270999993</v>
       </c>
       <c r="AK2" s="1">
-        <v>20.572330</v>
+        <v>20.572330000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>977.634000</v>
+        <v>977.63400000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.768500</v>
+        <v>-79.768500000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>74071.320073</v>
+        <v>74071.320072999995</v>
       </c>
       <c r="AP2" s="1">
         <v>20.575367</v>
       </c>
       <c r="AQ2" s="1">
-        <v>985.861000</v>
+        <v>985.86099999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.185000</v>
+        <v>-91.185000000000002</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>74082.269755</v>
+        <v>74082.269755000001</v>
       </c>
       <c r="AU2" s="1">
         <v>20.578408</v>
       </c>
       <c r="AV2" s="1">
-        <v>995.766000</v>
+        <v>995.76599999999996</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.611000</v>
+        <v>-108.611</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>74093.473419</v>
+        <v>74093.473419000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>20.581520</v>
+        <v>20.581520000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.130000</v>
+        <v>1004.13</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.165000</v>
+        <v>-124.16500000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>74104.780189</v>
+        <v>74104.780188999997</v>
       </c>
       <c r="BE2" s="1">
-        <v>20.584661</v>
+        <v>20.584661000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1043.040000</v>
+        <v>1043.04</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.440000</v>
+        <v>-195.44</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>74115.771038</v>
+        <v>74115.771038000006</v>
       </c>
       <c r="BJ2" s="1">
-        <v>20.587714</v>
+        <v>20.587713999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1110.310000</v>
+        <v>1110.31</v>
       </c>
       <c r="BL2" s="1">
-        <v>-310.532000</v>
+        <v>-310.53199999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>74127.160212</v>
+        <v>74127.160212000003</v>
       </c>
       <c r="BO2" s="1">
         <v>20.590878</v>
       </c>
       <c r="BP2" s="1">
-        <v>1219.300000</v>
+        <v>1219.3</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-490.474000</v>
+        <v>-490.47399999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>74139.063664</v>
+        <v>74139.063664000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>20.594184</v>
+        <v>20.594183999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1341.360000</v>
+        <v>1341.36</v>
       </c>
       <c r="BV2" s="1">
-        <v>-686.900000</v>
+        <v>-686.9</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>74150.103120</v>
+        <v>74150.10312</v>
       </c>
       <c r="BY2" s="1">
         <v>20.597251</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1476.480000</v>
+        <v>1476.48</v>
       </c>
       <c r="CA2" s="1">
-        <v>-894.707000</v>
+        <v>-894.70699999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>74161.007665</v>
+        <v>74161.007664999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>20.600280</v>
+        <v>20.600280000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1828.240000</v>
+        <v>1828.24</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1386.420000</v>
+        <v>-1386.42</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>73988.520423</v>
+        <v>73988.520422999994</v>
       </c>
       <c r="B3" s="1">
         <v>20.552367</v>
       </c>
       <c r="C3" s="1">
-        <v>902.385000</v>
+        <v>902.38499999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-195.167000</v>
+        <v>-195.167</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>73998.909130</v>
+        <v>73998.90913</v>
       </c>
       <c r="G3" s="1">
         <v>20.555253</v>
       </c>
       <c r="H3" s="1">
-        <v>919.399000</v>
+        <v>919.399</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.280000</v>
+        <v>-166.28</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>74009.455068</v>
+        <v>74009.455067999996</v>
       </c>
       <c r="L3" s="1">
-        <v>20.558182</v>
+        <v>20.558181999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>943.117000</v>
+        <v>943.11699999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.634000</v>
+        <v>-119.634</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>74020.001502</v>
+        <v>74020.001501999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>20.561112</v>
+        <v>20.561112000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>950.377000</v>
+        <v>950.37699999999995</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.828000</v>
+        <v>-103.828</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>74030.268720</v>
+        <v>74030.268719999993</v>
       </c>
       <c r="V3" s="1">
-        <v>20.563964</v>
+        <v>20.563963999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>957.455000</v>
+        <v>957.45500000000004</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.967800</v>
+        <v>-88.967799999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>74040.395010</v>
+        <v>74040.395009999993</v>
       </c>
       <c r="AA3" s="1">
-        <v>20.566776</v>
+        <v>20.566776000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>965.213000</v>
+        <v>965.21299999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.500100</v>
+        <v>-77.500100000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>74050.654757</v>
+        <v>74050.654756999997</v>
       </c>
       <c r="AF3" s="1">
         <v>20.569626</v>
       </c>
       <c r="AG3" s="1">
-        <v>970.240000</v>
+        <v>970.24</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.198900</v>
+        <v>-75.198899999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>74060.813603</v>
+        <v>74060.813603000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>20.572448</v>
+        <v>20.572448000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>977.658000</v>
+        <v>977.65800000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.770500</v>
+        <v>-79.770499999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>74071.737741</v>
+        <v>74071.737741000004</v>
       </c>
       <c r="AP3" s="1">
-        <v>20.575483</v>
+        <v>20.575482999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>985.846000</v>
+        <v>985.846</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.174600</v>
+        <v>-91.174599999999998</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>74082.727097</v>
+        <v>74082.727096999995</v>
       </c>
       <c r="AU3" s="1">
-        <v>20.578535</v>
+        <v>20.578534999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>995.779000</v>
+        <v>995.779</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.632000</v>
+        <v>-108.63200000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>74093.831498</v>
       </c>
       <c r="AZ3" s="1">
-        <v>20.581620</v>
+        <v>20.581620000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.167000</v>
+        <v>-124.167</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>74105.143080</v>
+        <v>74105.143079999994</v>
       </c>
       <c r="BE3" s="1">
-        <v>20.584762</v>
+        <v>20.584762000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1043.060000</v>
+        <v>1043.06</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.432000</v>
+        <v>-195.43199999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>74116.158909</v>
+        <v>74116.158909000005</v>
       </c>
       <c r="BJ3" s="1">
-        <v>20.587822</v>
+        <v>20.587821999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1110.320000</v>
+        <v>1110.32</v>
       </c>
       <c r="BL3" s="1">
-        <v>-310.533000</v>
+        <v>-310.53300000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>74127.597190</v>
+        <v>74127.59719</v>
       </c>
       <c r="BO3" s="1">
         <v>20.590999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1219.300000</v>
+        <v>1219.3</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-490.529000</v>
+        <v>-490.529</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>74139.524479</v>
       </c>
       <c r="BT3" s="1">
-        <v>20.594312</v>
+        <v>20.594311999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1341.390000</v>
+        <v>1341.39</v>
       </c>
       <c r="BV3" s="1">
-        <v>-686.872000</v>
+        <v>-686.87199999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>74150.572414</v>
+        <v>74150.572413999995</v>
       </c>
       <c r="BY3" s="1">
-        <v>20.597381</v>
+        <v>20.597380999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1476.560000</v>
+        <v>1476.56</v>
       </c>
       <c r="CA3" s="1">
-        <v>-894.741000</v>
+        <v>-894.74099999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>74161.555249</v>
+        <v>74161.555248999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>20.600432</v>
+        <v>20.600432000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1826.720000</v>
+        <v>1826.72</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1385.760000</v>
+        <v>-1385.76</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>73988.883990</v>
+        <v>73988.883990000002</v>
       </c>
       <c r="B4" s="1">
-        <v>20.552468</v>
+        <v>20.552468000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>902.169000</v>
+        <v>902.16899999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-195.278000</v>
+        <v>-195.27799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>73999.282120</v>
+        <v>73999.282120000003</v>
       </c>
       <c r="G4" s="1">
         <v>20.555356</v>
       </c>
       <c r="H4" s="1">
-        <v>919.285000</v>
+        <v>919.28499999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-166.098000</v>
+        <v>-166.09800000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>74009.801556</v>
+        <v>74009.801556000006</v>
       </c>
       <c r="L4" s="1">
-        <v>20.558278</v>
+        <v>20.558278000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>943.138000</v>
+        <v>943.13800000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.624000</v>
+        <v>-119.624</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>74020.348204</v>
+        <v>74020.348203999994</v>
       </c>
       <c r="Q4" s="1">
-        <v>20.561208</v>
+        <v>20.561208000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>950.422000</v>
+        <v>950.42200000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.843000</v>
+        <v>-103.843</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>74030.609935</v>
       </c>
       <c r="V4" s="1">
-        <v>20.564058</v>
+        <v>20.564057999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>957.407000</v>
+        <v>957.40700000000004</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.126200</v>
+        <v>-89.126199999999997</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>74040.824049</v>
+        <v>74040.824049000003</v>
       </c>
       <c r="AA4" s="1">
         <v>20.566896</v>
       </c>
       <c r="AB4" s="1">
-        <v>965.146000</v>
+        <v>965.14599999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.554900</v>
+        <v>-77.554900000000004</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>74051.081317</v>
+        <v>74051.081317000004</v>
       </c>
       <c r="AF4" s="1">
-        <v>20.569745</v>
+        <v>20.569745000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>970.193000</v>
+        <v>970.19299999999998</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.201000</v>
+        <v>-75.200999999999993</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>74061.148118</v>
+        <v>74061.148117999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>20.572541</v>
+        <v>20.572541000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>977.637000</v>
+        <v>977.63699999999994</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.765700</v>
+        <v>-79.765699999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>74072.101768</v>
+        <v>74072.101767999993</v>
       </c>
       <c r="AP4" s="1">
-        <v>20.575584</v>
+        <v>20.575583999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>985.860000</v>
+        <v>985.86</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.159200</v>
+        <v>-91.159199999999998</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>74083.110473</v>
+        <v>74083.110472999993</v>
       </c>
       <c r="AU4" s="1">
-        <v>20.578642</v>
+        <v>20.578641999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>995.765000</v>
+        <v>995.76499999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.627000</v>
+        <v>-108.627</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>74094.193082</v>
+        <v>74094.193081999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>20.581720</v>
+        <v>20.581720000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.179000</v>
+        <v>-124.179</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>74105.868443</v>
+        <v>74105.868442999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>20.584963</v>
+        <v>20.584962999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1043.060000</v>
+        <v>1043.06</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.450000</v>
+        <v>-195.45</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>74116.908692</v>
+        <v>74116.908691999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>20.588030</v>
+        <v>20.58803</v>
       </c>
       <c r="BK4" s="1">
-        <v>1110.290000</v>
+        <v>1110.29</v>
       </c>
       <c r="BL4" s="1">
-        <v>-310.560000</v>
+        <v>-310.56</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>74128.006388</v>
+        <v>74128.006387999994</v>
       </c>
       <c r="BO4" s="1">
         <v>20.591113</v>
       </c>
       <c r="BP4" s="1">
-        <v>1219.270000</v>
+        <v>1219.27</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-490.500000</v>
+        <v>-490.5</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>74139.946055</v>
+        <v>74139.946054999993</v>
       </c>
       <c r="BT4" s="1">
-        <v>20.594429</v>
+        <v>20.594429000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1341.460000</v>
+        <v>1341.46</v>
       </c>
       <c r="BV4" s="1">
-        <v>-686.807000</v>
+        <v>-686.80700000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>74151.019764</v>
+        <v>74151.019763999997</v>
       </c>
       <c r="BY4" s="1">
-        <v>20.597505</v>
+        <v>20.597505000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1476.600000</v>
+        <v>1476.6</v>
       </c>
       <c r="CA4" s="1">
-        <v>-894.613000</v>
+        <v>-894.61300000000006</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>74162.415312</v>
+        <v>74162.415311999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>20.600671</v>
+        <v>20.600670999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>1828.200000</v>
+        <v>1828.2</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1386.130000</v>
+        <v>-1386.13</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>73989.226229</v>
+        <v>73989.226229000007</v>
       </c>
       <c r="B5" s="1">
-        <v>20.552563</v>
+        <v>20.552562999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>902.295000</v>
+        <v>902.29499999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>-195.289000</v>
+        <v>-195.28899999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>73999.625887</v>
+        <v>73999.625887000002</v>
       </c>
       <c r="G5" s="1">
-        <v>20.555452</v>
+        <v>20.555451999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>919.645000</v>
+        <v>919.64499999999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-166.573000</v>
+        <v>-166.57300000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>74010.155419</v>
+        <v>74010.155419000002</v>
       </c>
       <c r="L5" s="1">
         <v>20.558377</v>
       </c>
       <c r="M5" s="1">
-        <v>943.192000</v>
+        <v>943.19200000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.606000</v>
+        <v>-119.60599999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>74020.774795</v>
+        <v>74020.774795000005</v>
       </c>
       <c r="Q5" s="1">
-        <v>20.561326</v>
+        <v>20.561326000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>950.380000</v>
+        <v>950.38</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.838000</v>
+        <v>-103.83799999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>74031.034046</v>
+        <v>74031.034046000001</v>
       </c>
       <c r="V5" s="1">
         <v>20.564176</v>
       </c>
       <c r="W5" s="1">
-        <v>957.465000</v>
+        <v>957.46500000000003</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.081500</v>
+        <v>-89.081500000000005</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>74041.113720</v>
+        <v>74041.113719999994</v>
       </c>
       <c r="AA5" s="1">
         <v>20.566976</v>
       </c>
       <c r="AB5" s="1">
-        <v>965.255000</v>
+        <v>965.255</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.489800</v>
+        <v>-77.489800000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>74051.334280</v>
+        <v>74051.334279999995</v>
       </c>
       <c r="AF5" s="1">
-        <v>20.569815</v>
+        <v>20.569814999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>970.203000</v>
+        <v>970.20299999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.180300</v>
+        <v>-75.180300000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>74061.498791</v>
+        <v>74061.498791000005</v>
       </c>
       <c r="AK5" s="1">
-        <v>20.572639</v>
+        <v>20.572638999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>977.644000</v>
+        <v>977.64400000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.769800</v>
+        <v>-79.769800000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>74072.458888</v>
+        <v>74072.458887999994</v>
       </c>
       <c r="AP5" s="1">
-        <v>20.575683</v>
+        <v>20.575683000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>985.842000</v>
+        <v>985.84199999999998</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.181000</v>
+        <v>-91.180999999999997</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>74083.476024</v>
+        <v>74083.476024000003</v>
       </c>
       <c r="AU5" s="1">
-        <v>20.578743</v>
+        <v>20.578742999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>995.777000</v>
+        <v>995.77700000000004</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.631000</v>
+        <v>-108.631</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>74094.910297</v>
+        <v>74094.910296999995</v>
       </c>
       <c r="AZ5" s="1">
-        <v>20.581920</v>
+        <v>20.58192</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.171000</v>
+        <v>-124.17100000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>74106.253802</v>
+        <v>74106.253802000007</v>
       </c>
       <c r="BE5" s="1">
-        <v>20.585071</v>
+        <v>20.585070999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1043.060000</v>
+        <v>1043.06</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.450000</v>
+        <v>-195.45</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>74117.285837</v>
+        <v>74117.285837000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>20.588135</v>
+        <v>20.588135000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1110.310000</v>
+        <v>1110.31</v>
       </c>
       <c r="BL5" s="1">
-        <v>-310.543000</v>
+        <v>-310.54300000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>74128.399677</v>
+        <v>74128.399676999994</v>
       </c>
       <c r="BO5" s="1">
-        <v>20.591222</v>
+        <v>20.591221999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1219.310000</v>
+        <v>1219.31</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-490.510000</v>
+        <v>-490.51</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>74140.679133</v>
+        <v>74140.679132999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>20.594633</v>
+        <v>20.594633000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1341.400000</v>
+        <v>1341.4</v>
       </c>
       <c r="BV5" s="1">
-        <v>-686.829000</v>
+        <v>-686.82899999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>74151.727022</v>
+        <v>74151.727022000006</v>
       </c>
       <c r="BY5" s="1">
-        <v>20.597702</v>
+        <v>20.597702000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1476.480000</v>
+        <v>1476.48</v>
       </c>
       <c r="CA5" s="1">
-        <v>-894.679000</v>
+        <v>-894.67899999999997</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>74162.633552</v>
+        <v>74162.633551999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>20.600732</v>
+        <v>20.600732000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1828.410000</v>
+        <v>1828.41</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1385.980000</v>
+        <v>-1385.98</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>73989.567973</v>
+        <v>73989.567972999997</v>
       </c>
       <c r="B6" s="1">
-        <v>20.552658</v>
+        <v>20.552658000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>902.260000</v>
+        <v>902.26</v>
       </c>
       <c r="D6" s="1">
-        <v>-195.411000</v>
+        <v>-195.411</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>73999.968089</v>
+        <v>73999.968089000002</v>
       </c>
       <c r="G6" s="1">
-        <v>20.555547</v>
+        <v>20.555547000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>919.519000</v>
+        <v>919.51900000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.408000</v>
+        <v>-166.40799999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>74010.594377</v>
+        <v>74010.594377000001</v>
       </c>
       <c r="L6" s="1">
         <v>20.558498</v>
       </c>
       <c r="M6" s="1">
-        <v>943.256000</v>
+        <v>943.25599999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.508000</v>
+        <v>-119.508</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>74021.046087</v>
+        <v>74021.046086999995</v>
       </c>
       <c r="Q6" s="1">
-        <v>20.561402</v>
+        <v>20.561402000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>950.383000</v>
+        <v>950.38300000000004</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.878000</v>
+        <v>-103.878</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>74031.301358</v>
+        <v>74031.301357999997</v>
       </c>
       <c r="V6" s="1">
-        <v>20.564250</v>
+        <v>20.564250000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>957.495000</v>
+        <v>957.495</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.101000</v>
+        <v>-89.100999999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>74041.461408</v>
+        <v>74041.461408000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>20.567073</v>
+        <v>20.567073000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>965.247000</v>
+        <v>965.24699999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.446700</v>
+        <v>-77.446700000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>74051.688418</v>
+        <v>74051.688418000005</v>
       </c>
       <c r="AF6" s="1">
         <v>20.569913</v>
       </c>
       <c r="AG6" s="1">
-        <v>970.208000</v>
+        <v>970.20799999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.254900</v>
+        <v>-75.254900000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>74061.846995</v>
       </c>
       <c r="AK6" s="1">
-        <v>20.572735</v>
+        <v>20.572735000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>977.671000</v>
+        <v>977.67100000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.771800</v>
+        <v>-79.771799999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>74073.178124</v>
+        <v>74073.178123999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>20.575883</v>
+        <v>20.575883000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>985.852000</v>
+        <v>985.85199999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.169600</v>
+        <v>-91.169600000000003</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>74084.206150</v>
+        <v>74084.206149999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>20.578946</v>
+        <v>20.578945999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>995.796000</v>
+        <v>995.79600000000005</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.617000</v>
+        <v>-108.617</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>74095.267417</v>
+        <v>74095.267416999995</v>
       </c>
       <c r="AZ6" s="1">
-        <v>20.582019</v>
+        <v>20.582018999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.174000</v>
+        <v>-124.17400000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>74106.615915</v>
+        <v>74106.615915000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>20.585171</v>
+        <v>20.585170999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1043.030000</v>
+        <v>1043.03</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.427000</v>
+        <v>-195.42699999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>74117.661788</v>
+        <v>74117.661787999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>20.588239</v>
+        <v>20.588239000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1110.290000</v>
+        <v>1110.29</v>
       </c>
       <c r="BL6" s="1">
-        <v>-310.562000</v>
+        <v>-310.56200000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>74129.136764</v>
+        <v>74129.136763999995</v>
       </c>
       <c r="BO6" s="1">
-        <v>20.591427</v>
+        <v>20.591426999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1219.310000</v>
+        <v>1219.31</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-490.545000</v>
+        <v>-490.54500000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>74140.808093</v>
@@ -1719,649 +2135,649 @@
         <v>20.594669</v>
       </c>
       <c r="BU6" s="1">
-        <v>1341.490000</v>
+        <v>1341.49</v>
       </c>
       <c r="BV6" s="1">
-        <v>-686.786000</v>
+        <v>-686.78599999999994</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>74151.882767</v>
+        <v>74151.882767000003</v>
       </c>
       <c r="BY6" s="1">
         <v>20.597745</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1476.480000</v>
+        <v>1476.48</v>
       </c>
       <c r="CA6" s="1">
-        <v>-894.753000</v>
+        <v>-894.75300000000004</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>74163.154849</v>
+        <v>74163.154848999999</v>
       </c>
       <c r="CD6" s="1">
         <v>20.600876</v>
       </c>
       <c r="CE6" s="1">
-        <v>1827.040000</v>
+        <v>1827.04</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1385.770000</v>
+        <v>-1385.77</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>73989.992548</v>
+        <v>73989.992547999995</v>
       </c>
       <c r="B7" s="1">
-        <v>20.552776</v>
+        <v>20.552776000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>902.247000</v>
+        <v>902.24699999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-195.374000</v>
+        <v>-195.374</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>74000.404108</v>
+        <v>74000.404108000002</v>
       </c>
       <c r="G7" s="1">
-        <v>20.555668</v>
+        <v>20.555668000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>919.505000</v>
+        <v>919.505</v>
       </c>
       <c r="I7" s="1">
-        <v>-166.424000</v>
+        <v>-166.42400000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>74010.858761</v>
+        <v>74010.858760999996</v>
       </c>
       <c r="L7" s="1">
-        <v>20.558572</v>
+        <v>20.558572000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>943.113000</v>
+        <v>943.11300000000006</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.637000</v>
+        <v>-119.637</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>74021.394294</v>
+        <v>74021.394293999998</v>
       </c>
       <c r="Q7" s="1">
         <v>20.561498</v>
       </c>
       <c r="R7" s="1">
-        <v>950.390000</v>
+        <v>950.39</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.919000</v>
+        <v>-103.919</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>74031.647069</v>
+        <v>74031.647068999999</v>
       </c>
       <c r="V7" s="1">
         <v>20.564346</v>
       </c>
       <c r="W7" s="1">
-        <v>957.621000</v>
+        <v>957.62099999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.137800</v>
+        <v>-89.137799999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>74041.809631</v>
+        <v>74041.809630999996</v>
       </c>
       <c r="AA7" s="1">
         <v>20.567169</v>
       </c>
       <c r="AB7" s="1">
-        <v>965.230000</v>
+        <v>965.23</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.546000</v>
+        <v>-77.546000000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>74052.033138</v>
+        <v>74052.033137999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>20.570009</v>
+        <v>20.570008999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>970.215000</v>
+        <v>970.21500000000003</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.254000</v>
+        <v>-75.254000000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>74062.544356</v>
+        <v>74062.544355999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>20.572929</v>
+        <v>20.572928999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>977.679000</v>
+        <v>977.67899999999997</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.779900</v>
+        <v>-79.779899999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>74073.540166</v>
+        <v>74073.540166000006</v>
       </c>
       <c r="AP7" s="1">
-        <v>20.575983</v>
+        <v>20.575983000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>985.850000</v>
+        <v>985.85</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.145900</v>
+        <v>-91.145899999999997</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>74084.600951</v>
       </c>
       <c r="AU7" s="1">
-        <v>20.579056</v>
+        <v>20.579056000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>995.778000</v>
+        <v>995.77800000000002</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.629000</v>
+        <v>-108.629</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>74095.628008</v>
       </c>
       <c r="AZ7" s="1">
-        <v>20.582119</v>
+        <v>20.582118999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.172000</v>
+        <v>-124.172</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>74107.293913</v>
+        <v>74107.293913000001</v>
       </c>
       <c r="BE7" s="1">
         <v>20.585359</v>
       </c>
       <c r="BF7" s="1">
-        <v>1043.050000</v>
+        <v>1043.05</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.455000</v>
+        <v>-195.45500000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>74118.375224</v>
+        <v>74118.375224000003</v>
       </c>
       <c r="BJ7" s="1">
         <v>20.588438</v>
       </c>
       <c r="BK7" s="1">
-        <v>1110.310000</v>
+        <v>1110.31</v>
       </c>
       <c r="BL7" s="1">
-        <v>-310.556000</v>
+        <v>-310.55599999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>74129.248827</v>
+        <v>74129.248827000003</v>
       </c>
       <c r="BO7" s="1">
-        <v>20.591458</v>
+        <v>20.591457999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1219.300000</v>
+        <v>1219.3</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-490.546000</v>
+        <v>-490.54599999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>74141.212332</v>
+        <v>74141.212331999996</v>
       </c>
       <c r="BT7" s="1">
-        <v>20.594781</v>
+        <v>20.594781000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1341.440000</v>
+        <v>1341.44</v>
       </c>
       <c r="BV7" s="1">
-        <v>-686.744000</v>
+        <v>-686.74400000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>74152.305855</v>
+        <v>74152.305854999999</v>
       </c>
       <c r="BY7" s="1">
         <v>20.597863</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1476.490000</v>
+        <v>1476.49</v>
       </c>
       <c r="CA7" s="1">
-        <v>-894.755000</v>
+        <v>-894.755</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>74163.673166</v>
+        <v>74163.673165999993</v>
       </c>
       <c r="CD7" s="1">
-        <v>20.601020</v>
+        <v>20.601019999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>1827.510000</v>
+        <v>1827.51</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1385.710000</v>
+        <v>-1385.71</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>73990.257411</v>
+        <v>73990.257410999999</v>
       </c>
       <c r="B8" s="1">
-        <v>20.552849</v>
+        <v>20.552848999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>902.265000</v>
+        <v>902.26499999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-195.440000</v>
+        <v>-195.44</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>74000.685799</v>
+        <v>74000.685798999999</v>
       </c>
       <c r="G8" s="1">
-        <v>20.555746</v>
+        <v>20.555745999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>919.563000</v>
+        <v>919.56299999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.708000</v>
+        <v>-165.708</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>74011.205448</v>
+        <v>74011.205447999993</v>
       </c>
       <c r="L8" s="1">
-        <v>20.558668</v>
+        <v>20.558668000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>943.378000</v>
+        <v>943.37800000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.563000</v>
+        <v>-119.563</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>74021.743946</v>
+        <v>74021.743946000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>20.561596</v>
+        <v>20.561596000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>950.354000</v>
+        <v>950.35400000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.848000</v>
+        <v>-103.848</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>74031.988812</v>
+        <v>74031.988811999996</v>
       </c>
       <c r="V8" s="1">
-        <v>20.564441</v>
+        <v>20.564440999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>957.451000</v>
+        <v>957.45100000000002</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.152400</v>
+        <v>-89.1524</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>74042.508958</v>
+        <v>74042.508958000006</v>
       </c>
       <c r="AA8" s="1">
-        <v>20.567364</v>
+        <v>20.567364000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>965.248000</v>
+        <v>965.24800000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.509100</v>
+        <v>-77.509100000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>74052.742417</v>
+        <v>74052.742417000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>20.570206</v>
+        <v>20.570205999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>970.211000</v>
+        <v>970.21100000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.254700</v>
+        <v>-75.2547</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>74062.892052</v>
+        <v>74062.892051999996</v>
       </c>
       <c r="AK8" s="1">
-        <v>20.573026</v>
+        <v>20.573025999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>977.637000</v>
+        <v>977.63699999999994</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.775600</v>
+        <v>-79.775599999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>74073.899765</v>
+        <v>74073.899764999995</v>
       </c>
       <c r="AP8" s="1">
-        <v>20.576083</v>
+        <v>20.576083000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>985.848000</v>
+        <v>985.84799999999996</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.168000</v>
+        <v>-91.168000000000006</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>74084.961542</v>
+        <v>74084.961542000005</v>
       </c>
       <c r="AU8" s="1">
-        <v>20.579156</v>
+        <v>20.579156000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>995.771000</v>
+        <v>995.77099999999996</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.612000</v>
+        <v>-108.61199999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>74096.303095</v>
+        <v>74096.303094999996</v>
       </c>
       <c r="AZ8" s="1">
-        <v>20.582306</v>
+        <v>20.582305999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.130000</v>
+        <v>1004.13</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.150000</v>
+        <v>-124.15</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>74107.726920</v>
+        <v>74107.726920000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>20.585480</v>
+        <v>20.58548</v>
       </c>
       <c r="BF8" s="1">
-        <v>1043.050000</v>
+        <v>1043.05</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.445000</v>
+        <v>-195.44499999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>74118.785226</v>
+        <v>74118.785226000007</v>
       </c>
       <c r="BJ8" s="1">
-        <v>20.588551</v>
+        <v>20.588550999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1110.290000</v>
+        <v>1110.29</v>
       </c>
       <c r="BL8" s="1">
-        <v>-310.550000</v>
+        <v>-310.55</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>74129.640995</v>
+        <v>74129.640994999994</v>
       </c>
       <c r="BO8" s="1">
-        <v>20.591567</v>
+        <v>20.591567000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1219.310000</v>
+        <v>1219.31</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-490.554000</v>
+        <v>-490.55399999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>74141.626989</v>
+        <v>74141.626988999997</v>
       </c>
       <c r="BT8" s="1">
-        <v>20.594896</v>
+        <v>20.594895999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1341.500000</v>
+        <v>1341.5</v>
       </c>
       <c r="BV8" s="1">
-        <v>-686.652000</v>
+        <v>-686.65200000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>74152.755724</v>
+        <v>74152.755724000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>20.597988</v>
+        <v>20.597988000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1476.500000</v>
+        <v>1476.5</v>
       </c>
       <c r="CA8" s="1">
-        <v>-894.644000</v>
+        <v>-894.64400000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>74164.225214</v>
+        <v>74164.225214000006</v>
       </c>
       <c r="CD8" s="1">
         <v>20.601174</v>
       </c>
       <c r="CE8" s="1">
-        <v>1828.080000</v>
+        <v>1828.08</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1385.840000</v>
+        <v>-1385.84</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>73990.600643</v>
+        <v>73990.600642999998</v>
       </c>
       <c r="B9" s="1">
-        <v>20.552945</v>
+        <v>20.552945000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>902.164000</v>
+        <v>902.16399999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-195.226000</v>
+        <v>-195.226</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>74001.027541</v>
+        <v>74001.027541000003</v>
       </c>
       <c r="G9" s="1">
-        <v>20.555841</v>
+        <v>20.555841000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>919.243000</v>
+        <v>919.24300000000005</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.349000</v>
+        <v>-166.34899999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>74011.551655</v>
+        <v>74011.551655000003</v>
       </c>
       <c r="L9" s="1">
         <v>20.558764</v>
       </c>
       <c r="M9" s="1">
-        <v>943.272000</v>
+        <v>943.27200000000005</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.449000</v>
+        <v>-119.449</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>74022.441358</v>
+        <v>74022.441357999996</v>
       </c>
       <c r="Q9" s="1">
-        <v>20.561789</v>
+        <v>20.561789000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>950.377000</v>
+        <v>950.37699999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.836000</v>
+        <v>-103.836</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>74032.674779</v>
+        <v>74032.674778999994</v>
       </c>
       <c r="V9" s="1">
         <v>20.564632</v>
       </c>
       <c r="W9" s="1">
-        <v>957.648000</v>
+        <v>957.64800000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.149700</v>
+        <v>-89.149699999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>74042.859630</v>
+        <v>74042.859630000006</v>
       </c>
       <c r="AA9" s="1">
-        <v>20.567461</v>
+        <v>20.567461000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>965.210000</v>
+        <v>965.21</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.480700</v>
+        <v>-77.480699999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>74053.068797</v>
@@ -2370,3250 +2786,3250 @@
         <v>20.570297</v>
       </c>
       <c r="AG9" s="1">
-        <v>970.267000</v>
+        <v>970.26700000000005</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.223400</v>
+        <v>-75.223399999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>74063.239747</v>
       </c>
       <c r="AK9" s="1">
-        <v>20.573122</v>
+        <v>20.573122000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>977.663000</v>
+        <v>977.66300000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.769100</v>
+        <v>-79.769099999999995</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>74074.579821</v>
+        <v>74074.579821000007</v>
       </c>
       <c r="AP9" s="1">
-        <v>20.576272</v>
+        <v>20.576271999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>985.850000</v>
+        <v>985.85</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.190100</v>
+        <v>-91.190100000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>74085.691158</v>
+        <v>74085.691158000001</v>
       </c>
       <c r="AU9" s="1">
         <v>20.579359</v>
       </c>
       <c r="AV9" s="1">
-        <v>995.787000</v>
+        <v>995.78700000000003</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.636000</v>
+        <v>-108.636</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>74096.704358</v>
+        <v>74096.704358000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>20.582418</v>
+        <v>20.582418000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.167000</v>
+        <v>-124.167</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>74108.086521</v>
+        <v>74108.086521000005</v>
       </c>
       <c r="BE9" s="1">
-        <v>20.585580</v>
+        <v>20.58558</v>
       </c>
       <c r="BF9" s="1">
-        <v>1043.040000</v>
+        <v>1043.04</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.446000</v>
+        <v>-195.446</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>74119.161691</v>
+        <v>74119.161691000001</v>
       </c>
       <c r="BJ9" s="1">
         <v>20.588656</v>
       </c>
       <c r="BK9" s="1">
-        <v>1110.270000</v>
+        <v>1110.27</v>
       </c>
       <c r="BL9" s="1">
-        <v>-310.561000</v>
+        <v>-310.56099999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>74130.068219</v>
+        <v>74130.068218999993</v>
       </c>
       <c r="BO9" s="1">
-        <v>20.591686</v>
+        <v>20.591685999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1219.320000</v>
+        <v>1219.32</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-490.559000</v>
+        <v>-490.55900000000003</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>74142.061520</v>
+        <v>74142.061520000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>20.595017</v>
+        <v>20.595016999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1341.500000</v>
+        <v>1341.5</v>
       </c>
       <c r="BV9" s="1">
-        <v>-686.650000</v>
+        <v>-686.65</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>74153.187773</v>
+        <v>74153.187772999998</v>
       </c>
       <c r="BY9" s="1">
         <v>20.598108</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1476.620000</v>
+        <v>1476.62</v>
       </c>
       <c r="CA9" s="1">
-        <v>-894.791000</v>
+        <v>-894.79100000000005</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>74164.753453</v>
+        <v>74164.753452999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>20.601320</v>
+        <v>20.601320000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1826.730000</v>
+        <v>1826.73</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1385.950000</v>
+        <v>-1385.95</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>73990.940404</v>
+        <v>73990.940403999994</v>
       </c>
       <c r="B10" s="1">
-        <v>20.553039</v>
+        <v>20.553038999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>902.380000</v>
+        <v>902.38</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.293000</v>
+        <v>-195.29300000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>74001.376228</v>
+        <v>74001.376227999994</v>
       </c>
       <c r="G10" s="1">
-        <v>20.555938</v>
+        <v>20.555938000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>919.427000</v>
+        <v>919.42700000000002</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.991000</v>
+        <v>-165.99100000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>74012.242088</v>
+        <v>74012.242087999999</v>
       </c>
       <c r="L10" s="1">
-        <v>20.558956</v>
+        <v>20.558955999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>943.088000</v>
+        <v>943.08799999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.616000</v>
+        <v>-119.616</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>74022.788521</v>
+        <v>74022.788520999995</v>
       </c>
       <c r="Q10" s="1">
-        <v>20.561886</v>
+        <v>20.561886000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>950.395000</v>
+        <v>950.39499999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.826000</v>
+        <v>-103.82599999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>74033.018048</v>
+        <v>74033.018047999998</v>
       </c>
       <c r="V10" s="1">
-        <v>20.564727</v>
+        <v>20.564727000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>957.387000</v>
+        <v>957.38699999999994</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.923700</v>
+        <v>-88.923699999999997</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>74043.205873</v>
+        <v>74043.205872999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>20.567557</v>
+        <v>20.567557000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>965.246000</v>
+        <v>965.24599999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.514400</v>
+        <v>-77.514399999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>74053.735905</v>
+        <v>74053.735904999994</v>
       </c>
       <c r="AF10" s="1">
-        <v>20.570482</v>
+        <v>20.570481999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>970.201000</v>
+        <v>970.20100000000002</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.197000</v>
+        <v>-75.197000000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>74063.908850</v>
+        <v>74063.908850000007</v>
       </c>
       <c r="AK10" s="1">
-        <v>20.573308</v>
+        <v>20.573308000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>977.642000</v>
+        <v>977.64200000000005</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.759600</v>
+        <v>-79.759600000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>74075.002905</v>
+        <v>74075.002905000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>20.576390</v>
+        <v>20.57639</v>
       </c>
       <c r="AQ10" s="1">
-        <v>985.856000</v>
+        <v>985.85599999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.185200</v>
+        <v>-91.185199999999995</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>74086.082005</v>
+        <v>74086.082005000004</v>
       </c>
       <c r="AU10" s="1">
-        <v>20.579467</v>
+        <v>20.579467000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>995.766000</v>
+        <v>995.76599999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.633000</v>
+        <v>-108.633</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>74097.085287</v>
+        <v>74097.085286999994</v>
       </c>
       <c r="AZ10" s="1">
-        <v>20.582524</v>
+        <v>20.582523999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.148000</v>
+        <v>-124.148</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>74108.451575</v>
+        <v>74108.451574999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>20.585681</v>
+        <v>20.585681000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1043.040000</v>
+        <v>1043.04</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.442000</v>
+        <v>-195.44200000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>74119.595725</v>
+        <v>74119.595725000006</v>
       </c>
       <c r="BJ10" s="1">
         <v>20.588777</v>
       </c>
       <c r="BK10" s="1">
-        <v>1110.270000</v>
+        <v>1110.27</v>
       </c>
       <c r="BL10" s="1">
-        <v>-310.560000</v>
+        <v>-310.56</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>74130.493290</v>
+        <v>74130.493289999999</v>
       </c>
       <c r="BO10" s="1">
         <v>20.591804</v>
       </c>
       <c r="BP10" s="1">
-        <v>1219.290000</v>
+        <v>1219.29</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-490.588000</v>
+        <v>-490.58800000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>74142.477626</v>
+        <v>74142.477626000007</v>
       </c>
       <c r="BT10" s="1">
-        <v>20.595133</v>
+        <v>20.595133000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1341.460000</v>
+        <v>1341.46</v>
       </c>
       <c r="BV10" s="1">
-        <v>-686.619000</v>
+        <v>-686.61900000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>74153.607852</v>
+        <v>74153.607852000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>20.598224</v>
+        <v>20.598223999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1476.480000</v>
+        <v>1476.48</v>
       </c>
       <c r="CA10" s="1">
-        <v>-894.786000</v>
+        <v>-894.78599999999994</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>74165.270284</v>
+        <v>74165.270283999998</v>
       </c>
       <c r="CD10" s="1">
         <v>20.601464</v>
       </c>
       <c r="CE10" s="1">
-        <v>1827.070000</v>
+        <v>1827.07</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1387.180000</v>
+        <v>-1387.18</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>73991.624418</v>
+        <v>73991.624418000007</v>
       </c>
       <c r="B11" s="1">
-        <v>20.553229</v>
+        <v>20.553229000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>902.353000</v>
+        <v>902.35299999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.186000</v>
+        <v>-195.18600000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>74002.070628</v>
+        <v>74002.070628000001</v>
       </c>
       <c r="G11" s="1">
-        <v>20.556131</v>
+        <v>20.556131000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>919.377000</v>
+        <v>919.37699999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.097000</v>
+        <v>-166.09700000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>74012.591798</v>
+        <v>74012.591797999994</v>
       </c>
       <c r="L11" s="1">
-        <v>20.559053</v>
+        <v>20.559052999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>943.198000</v>
+        <v>943.19799999999998</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.593000</v>
+        <v>-119.593</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>74023.133625</v>
+        <v>74023.133625000002</v>
       </c>
       <c r="Q11" s="1">
         <v>20.561982</v>
       </c>
       <c r="R11" s="1">
-        <v>950.417000</v>
+        <v>950.41700000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.855000</v>
+        <v>-103.855</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>74033.364218</v>
+        <v>74033.364218000002</v>
       </c>
       <c r="V11" s="1">
-        <v>20.564823</v>
+        <v>20.564823000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>957.632000</v>
+        <v>957.63199999999995</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.109900</v>
+        <v>-89.109899999999996</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>74043.879901</v>
+        <v>74043.879900999993</v>
       </c>
       <c r="AA11" s="1">
-        <v>20.567744</v>
+        <v>20.567744000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>965.234000</v>
+        <v>965.23400000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.497300</v>
+        <v>-77.497299999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>74054.100463</v>
+        <v>74054.100462999995</v>
       </c>
       <c r="AF11" s="1">
-        <v>20.570583</v>
+        <v>20.570582999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>970.152000</v>
+        <v>970.15200000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.180800</v>
+        <v>-75.180800000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>74064.284819</v>
+        <v>74064.284818999993</v>
       </c>
       <c r="AK11" s="1">
-        <v>20.573412</v>
+        <v>20.573412000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>977.638000</v>
+        <v>977.63800000000003</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.765600</v>
+        <v>-79.765600000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>74075.362963</v>
+        <v>74075.362963000007</v>
       </c>
       <c r="AP11" s="1">
-        <v>20.576490</v>
+        <v>20.57649</v>
       </c>
       <c r="AQ11" s="1">
-        <v>985.852000</v>
+        <v>985.85199999999998</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.154000</v>
+        <v>-91.153999999999996</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>74086.447558</v>
       </c>
       <c r="AU11" s="1">
-        <v>20.579569</v>
+        <v>20.579568999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>995.786000</v>
+        <v>995.78599999999994</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.616000</v>
+        <v>-108.616</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>74097.444855</v>
+        <v>74097.444854999994</v>
       </c>
       <c r="AZ11" s="1">
-        <v>20.582624</v>
+        <v>20.582623999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.164000</v>
+        <v>-124.164</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>74108.889047</v>
+        <v>74108.889047000004</v>
       </c>
       <c r="BE11" s="1">
-        <v>20.585803</v>
+        <v>20.585802999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1043.050000</v>
+        <v>1043.05</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.458000</v>
+        <v>-195.458</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>74119.911672</v>
+        <v>74119.911672000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>20.588864</v>
+        <v>20.588864000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1110.320000</v>
+        <v>1110.32</v>
       </c>
       <c r="BL11" s="1">
-        <v>-310.587000</v>
+        <v>-310.58699999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>74130.881658</v>
+        <v>74130.881657999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>20.591912</v>
+        <v>20.591912000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1219.270000</v>
+        <v>1219.27</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-490.567000</v>
+        <v>-490.56700000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>74142.908154</v>
+        <v>74142.908154000004</v>
       </c>
       <c r="BT11" s="1">
-        <v>20.595252</v>
+        <v>20.595251999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1341.460000</v>
+        <v>1341.46</v>
       </c>
       <c r="BV11" s="1">
-        <v>-686.575000</v>
+        <v>-686.57500000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>74154.029947</v>
+        <v>74154.029947000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>20.598342</v>
+        <v>20.598341999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1476.560000</v>
+        <v>1476.56</v>
       </c>
       <c r="CA11" s="1">
-        <v>-894.773000</v>
+        <v>-894.77300000000002</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>74165.789595</v>
+        <v>74165.789594999995</v>
       </c>
       <c r="CD11" s="1">
-        <v>20.601608</v>
+        <v>20.601607999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1827.990000</v>
+        <v>1827.99</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1386.890000</v>
+        <v>-1386.89</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>73991.966129</v>
+        <v>73991.966128999993</v>
       </c>
       <c r="B12" s="1">
         <v>20.553324</v>
       </c>
       <c r="C12" s="1">
-        <v>902.212000</v>
+        <v>902.21199999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-195.387000</v>
+        <v>-195.387</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>74002.423779</v>
+        <v>74002.423779000004</v>
       </c>
       <c r="G12" s="1">
-        <v>20.556229</v>
+        <v>20.556228999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>919.776000</v>
+        <v>919.77599999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.644000</v>
+        <v>-166.64400000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>74012.937490</v>
+        <v>74012.937489999997</v>
       </c>
       <c r="L12" s="1">
-        <v>20.559149</v>
+        <v>20.559149000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>943.214000</v>
+        <v>943.21400000000006</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.534000</v>
+        <v>-119.53400000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>74023.804327</v>
+        <v>74023.804327000005</v>
       </c>
       <c r="Q12" s="1">
         <v>20.562168</v>
       </c>
       <c r="R12" s="1">
-        <v>950.391000</v>
+        <v>950.39099999999996</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.904000</v>
+        <v>-103.904</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>74034.035801</v>
+        <v>74034.035801000005</v>
       </c>
       <c r="V12" s="1">
-        <v>20.565010</v>
+        <v>20.565010000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>957.620000</v>
+        <v>957.62</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.071100</v>
+        <v>-89.071100000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>74044.251933</v>
+        <v>74044.251933000007</v>
       </c>
       <c r="AA12" s="1">
-        <v>20.567848</v>
+        <v>20.567848000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>965.221000</v>
+        <v>965.221</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.474000</v>
+        <v>-77.474000000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>74054.443696</v>
+        <v>74054.443696000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>20.570679</v>
+        <v>20.570678999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>970.202000</v>
+        <v>970.202</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.251100</v>
+        <v>-75.251099999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>74064.632017</v>
+        <v>74064.632016999996</v>
       </c>
       <c r="AK12" s="1">
-        <v>20.573509</v>
+        <v>20.573509000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>977.618000</v>
+        <v>977.61800000000005</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.769600</v>
+        <v>-79.769599999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>74075.724051</v>
+        <v>74075.724050999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>20.576590</v>
+        <v>20.576589999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>985.870000</v>
+        <v>985.87</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.162700</v>
+        <v>-91.162700000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>74086.878581</v>
+        <v>74086.878580999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>20.579688</v>
+        <v>20.579688000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>995.777000</v>
+        <v>995.77700000000004</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.647000</v>
+        <v>-108.64700000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>74097.891253</v>
+        <v>74097.891252999994</v>
       </c>
       <c r="AZ12" s="1">
-        <v>20.582748</v>
+        <v>20.582747999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.170000</v>
+        <v>-124.17</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>74109.175238</v>
+        <v>74109.175237999996</v>
       </c>
       <c r="BE12" s="1">
-        <v>20.585882</v>
+        <v>20.585882000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1043.060000</v>
+        <v>1043.06</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.460000</v>
+        <v>-195.46</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>74120.315879</v>
+        <v>74120.315879000002</v>
       </c>
       <c r="BJ12" s="1">
         <v>20.588977</v>
       </c>
       <c r="BK12" s="1">
-        <v>1110.300000</v>
+        <v>1110.3</v>
       </c>
       <c r="BL12" s="1">
-        <v>-310.558000</v>
+        <v>-310.55799999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>74131.282921</v>
+        <v>74131.282921000005</v>
       </c>
       <c r="BO12" s="1">
-        <v>20.592023</v>
+        <v>20.592023000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1219.300000</v>
+        <v>1219.3</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-490.552000</v>
+        <v>-490.55200000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>74143.319833</v>
+        <v>74143.319833000001</v>
       </c>
       <c r="BT12" s="1">
         <v>20.595367</v>
       </c>
       <c r="BU12" s="1">
-        <v>1341.440000</v>
+        <v>1341.44</v>
       </c>
       <c r="BV12" s="1">
-        <v>-686.551000</v>
+        <v>-686.55100000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>74154.484282</v>
+        <v>74154.484282000005</v>
       </c>
       <c r="BY12" s="1">
         <v>20.598468</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1476.520000</v>
+        <v>1476.52</v>
       </c>
       <c r="CA12" s="1">
-        <v>-894.644000</v>
+        <v>-894.64400000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>74166.308908</v>
+        <v>74166.308908000006</v>
       </c>
       <c r="CD12" s="1">
-        <v>20.601752</v>
+        <v>20.601752000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1827.850000</v>
+        <v>1827.85</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1387.200000</v>
+        <v>-1387.2</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>73992.310353</v>
+        <v>73992.310352999993</v>
       </c>
       <c r="B13" s="1">
-        <v>20.553420</v>
+        <v>20.553419999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>902.083000</v>
+        <v>902.08299999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>-195.348000</v>
+        <v>-195.34800000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>74002.765529</v>
+        <v>74002.765528999997</v>
       </c>
       <c r="G13" s="1">
         <v>20.556324</v>
       </c>
       <c r="H13" s="1">
-        <v>919.565000</v>
+        <v>919.56500000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.333000</v>
+        <v>-166.333</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>74013.598682</v>
+        <v>74013.598681999996</v>
       </c>
       <c r="L13" s="1">
-        <v>20.559333</v>
+        <v>20.559332999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>943.371000</v>
+        <v>943.37099999999998</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.698000</v>
+        <v>-119.69799999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>74024.183780</v>
+        <v>74024.183780000007</v>
       </c>
       <c r="Q13" s="1">
-        <v>20.562273</v>
+        <v>20.562273000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>950.393000</v>
+        <v>950.39300000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.829000</v>
+        <v>-103.82899999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>74034.401385</v>
+        <v>74034.401385000005</v>
       </c>
       <c r="V13" s="1">
-        <v>20.565111</v>
+        <v>20.565111000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>957.630000</v>
+        <v>957.63</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.020800</v>
+        <v>-89.020799999999994</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>74044.600588</v>
+        <v>74044.600588000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>20.567945</v>
+        <v>20.567945000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>965.197000</v>
+        <v>965.197</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.534800</v>
+        <v>-77.534800000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>74054.786926</v>
+        <v>74054.786926000001</v>
       </c>
       <c r="AF13" s="1">
         <v>20.570774</v>
       </c>
       <c r="AG13" s="1">
-        <v>970.207000</v>
+        <v>970.20699999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.169500</v>
+        <v>-75.169499999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>74064.984673</v>
+        <v>74064.984672999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>20.573607</v>
+        <v>20.573606999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>977.626000</v>
+        <v>977.62599999999998</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.777100</v>
+        <v>-79.777100000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>74076.156562</v>
+        <v>74076.156562000004</v>
       </c>
       <c r="AP13" s="1">
-        <v>20.576710</v>
+        <v>20.576709999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>985.850000</v>
+        <v>985.85</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.189400</v>
+        <v>-91.189400000000006</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>74087.175685</v>
+        <v>74087.175684999995</v>
       </c>
       <c r="AU13" s="1">
-        <v>20.579771</v>
+        <v>20.579771000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>995.774000</v>
+        <v>995.774</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.616000</v>
+        <v>-108.616</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>74098.160349</v>
+        <v>74098.160348999998</v>
       </c>
       <c r="AZ13" s="1">
         <v>20.582822</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.151000</v>
+        <v>-124.151</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>74109.533846</v>
+        <v>74109.533846000006</v>
       </c>
       <c r="BE13" s="1">
-        <v>20.585982</v>
+        <v>20.585982000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1043.050000</v>
+        <v>1043.05</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.428000</v>
+        <v>-195.428</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>74120.692380</v>
+        <v>74120.692379999993</v>
       </c>
       <c r="BJ13" s="1">
         <v>20.589081</v>
       </c>
       <c r="BK13" s="1">
-        <v>1110.300000</v>
+        <v>1110.3</v>
       </c>
       <c r="BL13" s="1">
-        <v>-310.557000</v>
+        <v>-310.55700000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>74131.700552</v>
+        <v>74131.700551999995</v>
       </c>
       <c r="BO13" s="1">
         <v>20.592139</v>
       </c>
       <c r="BP13" s="1">
-        <v>1219.290000</v>
+        <v>1219.29</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-490.558000</v>
+        <v>-490.55799999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>74143.749369</v>
+        <v>74143.749368999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>20.595486</v>
+        <v>20.595486000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1341.400000</v>
+        <v>1341.4</v>
       </c>
       <c r="BV13" s="1">
-        <v>-686.509000</v>
+        <v>-686.50900000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>74154.902938</v>
+        <v>74154.902937999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>20.598584</v>
+        <v>20.598583999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1476.490000</v>
+        <v>1476.49</v>
       </c>
       <c r="CA13" s="1">
-        <v>-894.699000</v>
+        <v>-894.69899999999996</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>74166.870771</v>
+        <v>74166.870771000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>20.601909</v>
+        <v>20.601908999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1827.010000</v>
+        <v>1827.01</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1387.000000</v>
+        <v>-1387</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>73992.969885</v>
+        <v>73992.969884999999</v>
       </c>
       <c r="B14" s="1">
-        <v>20.553603</v>
+        <v>20.553602999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>902.361000</v>
+        <v>902.36099999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-195.197000</v>
+        <v>-195.197</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>74003.461907</v>
+        <v>74003.461907000004</v>
       </c>
       <c r="G14" s="1">
-        <v>20.556517</v>
+        <v>20.556516999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>919.480000</v>
+        <v>919.48</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.343000</v>
+        <v>-166.34299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>74013.973156</v>
+        <v>74013.973155999993</v>
       </c>
       <c r="L14" s="1">
-        <v>20.559437</v>
+        <v>20.559436999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>943.151000</v>
+        <v>943.15099999999995</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.675000</v>
+        <v>-119.675</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>74024.531959</v>
       </c>
       <c r="Q14" s="1">
-        <v>20.562370</v>
+        <v>20.562370000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>950.400000</v>
+        <v>950.4</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.814000</v>
+        <v>-103.81399999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>74034.748057</v>
+        <v>74034.748057000004</v>
       </c>
       <c r="V14" s="1">
-        <v>20.565208</v>
+        <v>20.565207999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>957.548000</v>
+        <v>957.548</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.161100</v>
+        <v>-89.161100000000005</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>74044.950269</v>
+        <v>74044.950268999994</v>
       </c>
       <c r="AA14" s="1">
-        <v>20.568042</v>
+        <v>20.568041999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>965.233000</v>
+        <v>965.23299999999995</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.482900</v>
+        <v>-77.482900000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>74055.216462</v>
+        <v>74055.216461999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>20.570893</v>
+        <v>20.570893000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>970.241000</v>
+        <v>970.24099999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.258500</v>
+        <v>-75.258499999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>74065.414208</v>
+        <v>74065.414208000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>20.573726</v>
+        <v>20.573726000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>977.640000</v>
+        <v>977.64</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.787700</v>
+        <v>-79.787700000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>74076.444737</v>
+        <v>74076.444736999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>20.576790</v>
+        <v>20.576789999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>985.833000</v>
+        <v>985.83299999999997</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.165200</v>
+        <v>-91.165199999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>74087.531811</v>
+        <v>74087.531810999993</v>
       </c>
       <c r="AU14" s="1">
-        <v>20.579870</v>
+        <v>20.57987</v>
       </c>
       <c r="AV14" s="1">
-        <v>995.778000</v>
+        <v>995.77800000000002</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.630000</v>
+        <v>-108.63</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>74098.521174</v>
+        <v>74098.521173999994</v>
       </c>
       <c r="AZ14" s="1">
-        <v>20.582923</v>
+        <v>20.582923000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.165000</v>
+        <v>-124.16500000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>74109.896454</v>
+        <v>74109.896454000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>20.586082</v>
+        <v>20.586082000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1043.040000</v>
+        <v>1043.04</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.476000</v>
+        <v>-195.476</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>74121.441799</v>
+        <v>74121.441798999993</v>
       </c>
       <c r="BJ14" s="1">
-        <v>20.589289</v>
+        <v>20.589289000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1110.300000</v>
+        <v>1110.3</v>
       </c>
       <c r="BL14" s="1">
-        <v>-310.542000</v>
+        <v>-310.54199999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>74132.517960</v>
+        <v>74132.517959999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>20.592366</v>
+        <v>20.592365999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1219.330000</v>
+        <v>1219.33</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-490.537000</v>
+        <v>-490.53699999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>74144.177416</v>
+        <v>74144.177416000006</v>
       </c>
       <c r="BT14" s="1">
-        <v>20.595605</v>
+        <v>20.595604999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1341.370000</v>
+        <v>1341.37</v>
       </c>
       <c r="BV14" s="1">
-        <v>-686.491000</v>
+        <v>-686.49099999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>74155.347322</v>
+        <v>74155.347322000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>20.598708</v>
+        <v>20.598707999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1476.510000</v>
+        <v>1476.51</v>
       </c>
       <c r="CA14" s="1">
-        <v>-894.727000</v>
+        <v>-894.72699999999998</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>74167.394154</v>
+        <v>74167.394153999994</v>
       </c>
       <c r="CD14" s="1">
-        <v>20.602054</v>
+        <v>20.602053999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1827.960000</v>
+        <v>1827.96</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1387.040000</v>
+        <v>-1387.04</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>73993.333124</v>
+        <v>73993.333123999997</v>
       </c>
       <c r="B15" s="1">
         <v>20.553704</v>
       </c>
       <c r="C15" s="1">
-        <v>902.285000</v>
+        <v>902.28499999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.427000</v>
+        <v>-195.42699999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>74003.801169</v>
+        <v>74003.801168999998</v>
       </c>
       <c r="G15" s="1">
         <v>20.556611</v>
       </c>
       <c r="H15" s="1">
-        <v>919.332000</v>
+        <v>919.33199999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-166.545000</v>
+        <v>-166.54499999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>74014.319828</v>
+        <v>74014.319828000007</v>
       </c>
       <c r="L15" s="1">
-        <v>20.559533</v>
+        <v>20.559532999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>943.104000</v>
+        <v>943.10400000000004</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.668000</v>
+        <v>-119.66800000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>74024.881174</v>
+        <v>74024.881173999995</v>
       </c>
       <c r="Q15" s="1">
-        <v>20.562467</v>
+        <v>20.562467000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>950.427000</v>
+        <v>950.42700000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.795000</v>
+        <v>-103.795</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>74035.090298</v>
+        <v>74035.090297999996</v>
       </c>
       <c r="V15" s="1">
         <v>20.565303</v>
       </c>
       <c r="W15" s="1">
-        <v>957.586000</v>
+        <v>957.58600000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.010100</v>
+        <v>-89.010099999999994</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>74045.381810</v>
+        <v>74045.381810000006</v>
       </c>
       <c r="AA15" s="1">
-        <v>20.568162</v>
+        <v>20.568162000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>965.231000</v>
+        <v>965.23099999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.535600</v>
+        <v>-77.535600000000002</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>74055.482317</v>
+        <v>74055.482317000002</v>
       </c>
       <c r="AF15" s="1">
         <v>20.570967</v>
       </c>
       <c r="AG15" s="1">
-        <v>970.224000</v>
+        <v>970.22400000000005</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.268300</v>
+        <v>-75.268299999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>74065.689024</v>
+        <v>74065.689024000007</v>
       </c>
       <c r="AK15" s="1">
-        <v>20.573803</v>
+        <v>20.573803000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>977.665000</v>
+        <v>977.66499999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.776200</v>
+        <v>-79.776200000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>74076.804369</v>
+        <v>74076.804369000005</v>
       </c>
       <c r="AP15" s="1">
-        <v>20.576890</v>
+        <v>20.576889999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>985.864000</v>
+        <v>985.86400000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.173200</v>
+        <v>-91.173199999999994</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>74087.906290</v>
+        <v>74087.906289999999</v>
       </c>
       <c r="AU15" s="1">
         <v>20.579974</v>
       </c>
       <c r="AV15" s="1">
-        <v>995.788000</v>
+        <v>995.78800000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.628000</v>
+        <v>-108.628</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>74098.879780</v>
+        <v>74098.879780000003</v>
       </c>
       <c r="AZ15" s="1">
         <v>20.583022</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.153000</v>
+        <v>-124.15300000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>74110.618101</v>
       </c>
       <c r="BE15" s="1">
-        <v>20.586283</v>
+        <v>20.586283000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1043.040000</v>
+        <v>1043.04</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.452000</v>
+        <v>-195.452</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>74121.822230</v>
+        <v>74121.822230000005</v>
       </c>
       <c r="BJ15" s="1">
         <v>20.589395</v>
       </c>
       <c r="BK15" s="1">
-        <v>1110.330000</v>
+        <v>1110.33</v>
       </c>
       <c r="BL15" s="1">
-        <v>-310.573000</v>
+        <v>-310.57299999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>74132.937110</v>
+        <v>74132.937109999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>20.592483</v>
+        <v>20.592483000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1219.330000</v>
+        <v>1219.33</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-490.565000</v>
+        <v>-490.565</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>74144.591079</v>
+        <v>74144.591079000005</v>
       </c>
       <c r="BT15" s="1">
-        <v>20.595720</v>
+        <v>20.59572</v>
       </c>
       <c r="BU15" s="1">
-        <v>1341.350000</v>
+        <v>1341.35</v>
       </c>
       <c r="BV15" s="1">
-        <v>-686.458000</v>
+        <v>-686.45799999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>74156.083881</v>
+        <v>74156.083880999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>20.598912</v>
+        <v>20.598911999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1476.440000</v>
+        <v>1476.44</v>
       </c>
       <c r="CA15" s="1">
-        <v>-894.704000</v>
+        <v>-894.70399999999995</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>74168.172377</v>
+        <v>74168.172376999995</v>
       </c>
       <c r="CD15" s="1">
-        <v>20.602270</v>
+        <v>20.602270000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1827.870000</v>
+        <v>1827.87</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1385.900000</v>
+        <v>-1385.9</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>73993.676367</v>
+        <v>73993.676366999993</v>
       </c>
       <c r="B16" s="1">
-        <v>20.553799</v>
+        <v>20.553799000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>902.298000</v>
+        <v>902.298</v>
       </c>
       <c r="D16" s="1">
-        <v>-195.234000</v>
+        <v>-195.23400000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>74004.145889</v>
+        <v>74004.145889000007</v>
       </c>
       <c r="G16" s="1">
-        <v>20.556707</v>
+        <v>20.556706999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>919.630000</v>
+        <v>919.63</v>
       </c>
       <c r="I16" s="1">
-        <v>-166.196000</v>
+        <v>-166.196</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>74014.663060</v>
+        <v>74014.663060000006</v>
       </c>
       <c r="L16" s="1">
-        <v>20.559629</v>
+        <v>20.559629000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>943.075000</v>
+        <v>943.07500000000005</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.581000</v>
+        <v>-119.581</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>74025.303771</v>
+        <v>74025.303771000006</v>
       </c>
       <c r="Q16" s="1">
-        <v>20.562584</v>
+        <v>20.562584000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>950.435000</v>
+        <v>950.43499999999995</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.836000</v>
+        <v>-103.836</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>74035.522809</v>
+        <v>74035.522809000002</v>
       </c>
       <c r="V16" s="1">
-        <v>20.565423</v>
+        <v>20.565422999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>957.560000</v>
+        <v>957.56</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.088400</v>
+        <v>-89.088399999999993</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>74045.657595</v>
+        <v>74045.657594999997</v>
       </c>
       <c r="AA16" s="1">
-        <v>20.568238</v>
+        <v>20.568238000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>965.178000</v>
+        <v>965.178</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.405500</v>
+        <v>-77.405500000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>74055.827038</v>
+        <v>74055.827038000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>20.571063</v>
+        <v>20.571062999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>970.241000</v>
+        <v>970.24099999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.187200</v>
+        <v>-75.187200000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>74066.039168</v>
+        <v>74066.039168000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>20.573900</v>
+        <v>20.573899999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>977.623000</v>
+        <v>977.62300000000005</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.779900</v>
+        <v>-79.779899999999998</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>74077.163969</v>
+        <v>74077.163969000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>20.576990</v>
+        <v>20.576989999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>985.863000</v>
+        <v>985.86300000000006</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.176200</v>
+        <v>-91.176199999999994</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>74088.633426</v>
       </c>
       <c r="AU16" s="1">
-        <v>20.580176</v>
+        <v>20.580176000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>995.781000</v>
+        <v>995.78099999999995</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.616000</v>
+        <v>-108.616</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>74099.603445</v>
+        <v>74099.603445000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>20.583223</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.156000</v>
+        <v>-124.15600000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>74110.978693</v>
+        <v>74110.978692999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>20.586383</v>
+        <v>20.586383000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1043.050000</v>
+        <v>1043.05</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.464000</v>
+        <v>-195.464</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>74122.191630</v>
+        <v>74122.191630000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>20.589498</v>
+        <v>20.589497999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1110.290000</v>
+        <v>1110.29</v>
       </c>
       <c r="BL16" s="1">
-        <v>-310.560000</v>
+        <v>-310.56</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>74133.331894</v>
+        <v>74133.331894000003</v>
       </c>
       <c r="BO16" s="1">
         <v>20.592592</v>
       </c>
       <c r="BP16" s="1">
-        <v>1219.260000</v>
+        <v>1219.26</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-490.569000</v>
+        <v>-490.56900000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>74145.333095</v>
+        <v>74145.333094999995</v>
       </c>
       <c r="BT16" s="1">
-        <v>20.595926</v>
+        <v>20.595925999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1341.320000</v>
+        <v>1341.32</v>
       </c>
       <c r="BV16" s="1">
-        <v>-686.494000</v>
+        <v>-686.49400000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>74156.198952</v>
+        <v>74156.198952000006</v>
       </c>
       <c r="BY16" s="1">
-        <v>20.598944</v>
+        <v>20.598943999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1476.530000</v>
+        <v>1476.53</v>
       </c>
       <c r="CA16" s="1">
-        <v>-894.759000</v>
+        <v>-894.75900000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>74168.429304</v>
+        <v>74168.429304000005</v>
       </c>
       <c r="CD16" s="1">
-        <v>20.602341</v>
+        <v>20.602340999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1826.510000</v>
+        <v>1826.51</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1386.110000</v>
+        <v>-1386.11</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>73994.019762</v>
+        <v>73994.019761999996</v>
       </c>
       <c r="B17" s="1">
         <v>20.553894</v>
       </c>
       <c r="C17" s="1">
-        <v>902.171000</v>
+        <v>902.17100000000005</v>
       </c>
       <c r="D17" s="1">
-        <v>-195.306000</v>
+        <v>-195.30600000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>74004.583362</v>
+        <v>74004.583362000005</v>
       </c>
       <c r="G17" s="1">
         <v>20.556829</v>
       </c>
       <c r="H17" s="1">
-        <v>919.717000</v>
+        <v>919.71699999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-166.664000</v>
+        <v>-166.66399999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>74015.091635</v>
+        <v>74015.091635000004</v>
       </c>
       <c r="L17" s="1">
-        <v>20.559748</v>
+        <v>20.559747999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>943.181000</v>
+        <v>943.18100000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.586000</v>
+        <v>-119.586</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>74025.580005</v>
+        <v>74025.580004999996</v>
       </c>
       <c r="Q17" s="1">
-        <v>20.562661</v>
+        <v>20.562660999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>950.425000</v>
+        <v>950.42499999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.841000</v>
+        <v>-103.84099999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>74035.788665</v>
       </c>
       <c r="V17" s="1">
-        <v>20.565497</v>
+        <v>20.565497000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>957.539000</v>
+        <v>957.53899999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.116500</v>
+        <v>-89.116500000000002</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>74046.006251</v>
+        <v>74046.006250999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>20.568335</v>
+        <v>20.568335000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>965.224000</v>
+        <v>965.22400000000005</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.467800</v>
+        <v>-77.467799999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>74056.169796</v>
+        <v>74056.169796000002</v>
       </c>
       <c r="AF17" s="1">
         <v>20.571158</v>
       </c>
       <c r="AG17" s="1">
-        <v>970.219000</v>
+        <v>970.21900000000005</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.229200</v>
+        <v>-75.229200000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>74066.390863</v>
+        <v>74066.390862999993</v>
       </c>
       <c r="AK17" s="1">
-        <v>20.573997</v>
+        <v>20.573996999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>977.643000</v>
+        <v>977.64300000000003</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.780000</v>
+        <v>-79.78</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>74077.883664</v>
+        <v>74077.883663999994</v>
       </c>
       <c r="AP17" s="1">
-        <v>20.577190</v>
+        <v>20.577190000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>985.865000</v>
+        <v>985.86500000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.158500</v>
+        <v>-91.158500000000004</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>74089.023777</v>
+        <v>74089.023776999995</v>
       </c>
       <c r="AU17" s="1">
-        <v>20.580284</v>
+        <v>20.580283999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>995.795000</v>
+        <v>995.79499999999996</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.636000</v>
+        <v>-108.636</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>74099.980900</v>
+        <v>74099.980899999995</v>
       </c>
       <c r="AZ17" s="1">
-        <v>20.583328</v>
+        <v>20.583328000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.166000</v>
+        <v>-124.166</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>74111.342509</v>
+        <v>74111.342508999995</v>
       </c>
       <c r="BE17" s="1">
-        <v>20.586484</v>
+        <v>20.586483999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1043.060000</v>
+        <v>1043.06</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.454000</v>
+        <v>-195.45400000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>74122.883211</v>
+        <v>74122.883210999993</v>
       </c>
       <c r="BJ17" s="1">
-        <v>20.589690</v>
+        <v>20.589690000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1110.320000</v>
+        <v>1110.32</v>
       </c>
       <c r="BL17" s="1">
-        <v>-310.562000</v>
+        <v>-310.56200000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>74134.076389</v>
+        <v>74134.076388999994</v>
       </c>
       <c r="BO17" s="1">
-        <v>20.592799</v>
+        <v>20.592798999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1219.350000</v>
+        <v>1219.3499999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-490.580000</v>
+        <v>-490.58</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>74145.447175</v>
+        <v>74145.447174999994</v>
       </c>
       <c r="BT17" s="1">
         <v>20.595958</v>
       </c>
       <c r="BU17" s="1">
-        <v>1341.320000</v>
+        <v>1341.32</v>
       </c>
       <c r="BV17" s="1">
-        <v>-686.451000</v>
+        <v>-686.45100000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>74156.641416</v>
+        <v>74156.641415999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>20.599067</v>
+        <v>20.599067000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1476.580000</v>
+        <v>1476.58</v>
       </c>
       <c r="CA17" s="1">
-        <v>-894.636000</v>
+        <v>-894.63599999999997</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>74168.943160</v>
+        <v>74168.943159999995</v>
       </c>
       <c r="CD17" s="1">
         <v>20.602484</v>
       </c>
       <c r="CE17" s="1">
-        <v>1827.060000</v>
+        <v>1827.06</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1385.830000</v>
+        <v>-1385.83</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>73994.446622</v>
+        <v>73994.446622000003</v>
       </c>
       <c r="B18" s="1">
-        <v>20.554013</v>
+        <v>20.554013000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>902.493000</v>
+        <v>902.49300000000005</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.230000</v>
+        <v>-195.23</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>74004.865089</v>
+        <v>74004.865088999999</v>
       </c>
       <c r="G18" s="1">
-        <v>20.556907</v>
+        <v>20.556906999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>919.177000</v>
+        <v>919.17700000000002</v>
       </c>
       <c r="I18" s="1">
-        <v>-166.816000</v>
+        <v>-166.816</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>74015.375824</v>
+        <v>74015.375824000002</v>
       </c>
       <c r="L18" s="1">
-        <v>20.559827</v>
+        <v>20.559826999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>943.131000</v>
+        <v>943.13099999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.655000</v>
+        <v>-119.655</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>74025.930676</v>
+        <v>74025.930676000004</v>
       </c>
       <c r="Q18" s="1">
         <v>20.562759</v>
       </c>
       <c r="R18" s="1">
-        <v>950.390000</v>
+        <v>950.39</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.881000</v>
+        <v>-103.881</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>74036.155244</v>
+        <v>74036.155243999994</v>
       </c>
       <c r="V18" s="1">
-        <v>20.565599</v>
+        <v>20.565598999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>957.519000</v>
+        <v>957.51900000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.066900</v>
+        <v>-89.066900000000004</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>74046.351994</v>
+        <v>74046.351993999997</v>
       </c>
       <c r="AA18" s="1">
         <v>20.568431</v>
       </c>
       <c r="AB18" s="1">
-        <v>965.204000</v>
+        <v>965.20399999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.510900</v>
+        <v>-77.510900000000007</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>74056.855244</v>
+        <v>74056.855244000006</v>
       </c>
       <c r="AF18" s="1">
-        <v>20.571349</v>
+        <v>20.571349000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>970.219000</v>
+        <v>970.21900000000005</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.253200</v>
+        <v>-75.253200000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>74067.085230</v>
+        <v>74067.085229999997</v>
       </c>
       <c r="AK18" s="1">
-        <v>20.574190</v>
+        <v>20.574190000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>977.655000</v>
+        <v>977.65499999999997</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.782200</v>
+        <v>-79.782200000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>74078.248227</v>
+        <v>74078.248227000004</v>
       </c>
       <c r="AP18" s="1">
-        <v>20.577291</v>
+        <v>20.577290999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>985.853000</v>
+        <v>985.85299999999995</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.161700</v>
+        <v>-91.161699999999996</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>74089.389365</v>
+        <v>74089.389364999995</v>
       </c>
       <c r="AU18" s="1">
-        <v>20.580386</v>
+        <v>20.580386000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>995.790000</v>
+        <v>995.79</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.637000</v>
+        <v>-108.637</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>74100.360132</v>
+        <v>74100.360132000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>20.583433</v>
+        <v>20.583432999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.110000</v>
+        <v>1004.11</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.155000</v>
+        <v>-124.155</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>74112.015827</v>
+        <v>74112.015826999996</v>
       </c>
       <c r="BE18" s="1">
-        <v>20.586671</v>
+        <v>20.586670999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1043.050000</v>
+        <v>1043.05</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.463000</v>
+        <v>-195.46299999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>74123.318163</v>
+        <v>74123.318163000004</v>
       </c>
       <c r="BJ18" s="1">
-        <v>20.589811</v>
+        <v>20.589811000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1110.310000</v>
+        <v>1110.31</v>
       </c>
       <c r="BL18" s="1">
-        <v>-310.550000</v>
+        <v>-310.55</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>74134.583301</v>
+        <v>74134.583301000006</v>
       </c>
       <c r="BO18" s="1">
-        <v>20.592940</v>
+        <v>20.592939999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1219.270000</v>
+        <v>1219.27</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-490.554000</v>
+        <v>-490.55399999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>74145.888624</v>
+        <v>74145.888623999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>20.596080</v>
+        <v>20.596080000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1341.260000</v>
+        <v>1341.26</v>
       </c>
       <c r="BV18" s="1">
-        <v>-686.433000</v>
+        <v>-686.43299999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>74157.068973</v>
+        <v>74157.068973000001</v>
       </c>
       <c r="BY18" s="1">
         <v>20.599186</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1476.560000</v>
+        <v>1476.56</v>
       </c>
       <c r="CA18" s="1">
-        <v>-894.676000</v>
+        <v>-894.67600000000004</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>74169.497190</v>
+        <v>74169.497189999995</v>
       </c>
       <c r="CD18" s="1">
-        <v>20.602638</v>
+        <v>20.602637999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1827.780000</v>
+        <v>1827.78</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1385.750000</v>
+        <v>-1385.75</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>73994.719506</v>
+        <v>73994.719505999994</v>
       </c>
       <c r="B19" s="1">
-        <v>20.554089</v>
+        <v>20.554089000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>902.299000</v>
+        <v>902.29899999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.260000</v>
+        <v>-195.26</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>74005.209808</v>
       </c>
       <c r="G19" s="1">
-        <v>20.557003</v>
+        <v>20.557003000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>919.625000</v>
+        <v>919.625</v>
       </c>
       <c r="I19" s="1">
-        <v>-166.711000</v>
+        <v>-166.71100000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>74015.721522</v>
+        <v>74015.721522000007</v>
       </c>
       <c r="L19" s="1">
-        <v>20.559923</v>
+        <v>20.559923000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>943.229000</v>
+        <v>943.22900000000004</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.528000</v>
+        <v>-119.52800000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>74026.278870</v>
+        <v>74026.278869999995</v>
       </c>
       <c r="Q19" s="1">
-        <v>20.562855</v>
+        <v>20.562854999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>950.385000</v>
+        <v>950.38499999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.821000</v>
+        <v>-103.821</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>74036.789094</v>
+        <v>74036.789094000007</v>
       </c>
       <c r="V19" s="1">
-        <v>20.565775</v>
+        <v>20.565774999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>957.610000</v>
+        <v>957.61</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.906400</v>
+        <v>-88.906400000000005</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>74047.052808</v>
+        <v>74047.052807999993</v>
       </c>
       <c r="AA19" s="1">
-        <v>20.568626</v>
+        <v>20.568625999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>965.285000</v>
+        <v>965.28499999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.560400</v>
+        <v>-77.560400000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>74057.201451</v>
+        <v>74057.201451000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>20.571445</v>
+        <v>20.571445000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>970.208000</v>
+        <v>970.20799999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.224100</v>
+        <v>-75.224100000000007</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>74067.432925</v>
+        <v>74067.432925000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>20.574287</v>
+        <v>20.574287000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>977.632000</v>
+        <v>977.63199999999995</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.790900</v>
+        <v>-79.790899999999993</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>74078.605807</v>
       </c>
       <c r="AP19" s="1">
-        <v>20.577391</v>
+        <v>20.577390999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>985.866000</v>
+        <v>985.86599999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.168700</v>
+        <v>-91.168700000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>74090.073808</v>
+        <v>74090.073808000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>20.580576</v>
+        <v>20.580576000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>995.771000</v>
+        <v>995.77099999999996</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.626000</v>
+        <v>-108.626</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>74101.047297</v>
+        <v>74101.047296999997</v>
       </c>
       <c r="AZ19" s="1">
         <v>20.583624</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.173000</v>
+        <v>-124.173</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>74112.449860</v>
+        <v>74112.449859999993</v>
       </c>
       <c r="BE19" s="1">
-        <v>20.586792</v>
+        <v>20.586791999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1043.050000</v>
+        <v>1043.05</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.456000</v>
+        <v>-195.45599999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>74123.692150</v>
+        <v>74123.692150000003</v>
       </c>
       <c r="BJ19" s="1">
         <v>20.589914</v>
       </c>
       <c r="BK19" s="1">
-        <v>1110.280000</v>
+        <v>1110.28</v>
       </c>
       <c r="BL19" s="1">
-        <v>-310.583000</v>
+        <v>-310.58300000000003</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>74135.026228</v>
+        <v>74135.026228000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>20.593063</v>
+        <v>20.593063000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1219.280000</v>
+        <v>1219.28</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-490.614000</v>
+        <v>-490.61399999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>74146.298347</v>
+        <v>74146.298347000004</v>
       </c>
       <c r="BT19" s="1">
-        <v>20.596194</v>
+        <v>20.596194000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1341.180000</v>
+        <v>1341.18</v>
       </c>
       <c r="BV19" s="1">
-        <v>-686.440000</v>
+        <v>-686.44</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>74157.502934</v>
+        <v>74157.502934000004</v>
       </c>
       <c r="BY19" s="1">
-        <v>20.599306</v>
+        <v>20.599305999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1476.490000</v>
+        <v>1476.49</v>
       </c>
       <c r="CA19" s="1">
-        <v>-894.790000</v>
+        <v>-894.79</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>74170.024934</v>
+        <v>74170.024934000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>20.602785</v>
+        <v>20.602785000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1826.590000</v>
+        <v>1826.59</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1386.150000</v>
+        <v>-1386.15</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>73995.060669</v>
+        <v>73995.060668999999</v>
       </c>
       <c r="B20" s="1">
-        <v>20.554184</v>
+        <v>20.554183999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>902.291000</v>
+        <v>902.29100000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-195.340000</v>
+        <v>-195.34</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>74005.554560</v>
+        <v>74005.554560000004</v>
       </c>
       <c r="G20" s="1">
         <v>20.557098</v>
       </c>
       <c r="H20" s="1">
-        <v>919.631000</v>
+        <v>919.63099999999997</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.204000</v>
+        <v>-166.20400000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>74016.065249</v>
+        <v>74016.065249000007</v>
       </c>
       <c r="L20" s="1">
-        <v>20.560018</v>
+        <v>20.560017999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>943.149000</v>
+        <v>943.149</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.595000</v>
+        <v>-119.595</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>74026.974292</v>
+        <v>74026.974291999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>20.563048</v>
+        <v>20.563047999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>950.431000</v>
+        <v>950.43100000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.786000</v>
+        <v>-103.786</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>74037.177959</v>
+        <v>74037.177958999993</v>
       </c>
       <c r="V20" s="1">
-        <v>20.565883</v>
+        <v>20.565882999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>957.657000</v>
+        <v>957.65700000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.148600</v>
+        <v>-89.148600000000002</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>74047.402025</v>
+        <v>74047.402025000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>20.568723</v>
+        <v>20.568722999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>965.279000</v>
+        <v>965.279</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.498900</v>
+        <v>-77.498900000000006</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>74057.545180</v>
+        <v>74057.545180000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>20.571540</v>
+        <v>20.571539999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>970.198000</v>
+        <v>970.19799999999998</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.245300</v>
+        <v>-75.2453</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>74067.783597</v>
+        <v>74067.783597000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>20.574384</v>
+        <v>20.574383999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>977.633000</v>
+        <v>977.63300000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.763800</v>
+        <v>-79.763800000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>74079.281391</v>
+        <v>74079.281390999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>20.577578</v>
+        <v>20.577577999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>985.857000</v>
+        <v>985.85699999999997</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.171900</v>
+        <v>-91.171899999999994</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>74090.484032</v>
+        <v>74090.484031999993</v>
       </c>
       <c r="AU20" s="1">
-        <v>20.580690</v>
+        <v>20.580690000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>995.790000</v>
+        <v>995.79</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.633000</v>
+        <v>-108.633</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>74101.440662</v>
+        <v>74101.440661999994</v>
       </c>
       <c r="AZ20" s="1">
         <v>20.583734</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.130000</v>
+        <v>1004.13</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.160000</v>
+        <v>-124.16</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>74112.813922</v>
+        <v>74112.813922000001</v>
       </c>
       <c r="BE20" s="1">
         <v>20.586893</v>
       </c>
       <c r="BF20" s="1">
-        <v>1043.060000</v>
+        <v>1043.06</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.454000</v>
+        <v>-195.45400000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>74124.070594</v>
+        <v>74124.070594000004</v>
       </c>
       <c r="BJ20" s="1">
-        <v>20.590020</v>
+        <v>20.590019999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1110.320000</v>
+        <v>1110.32</v>
       </c>
       <c r="BL20" s="1">
-        <v>-310.576000</v>
+        <v>-310.57600000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>74135.602580</v>
+        <v>74135.602580000006</v>
       </c>
       <c r="BO20" s="1">
-        <v>20.593223</v>
+        <v>20.593222999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1219.290000</v>
+        <v>1219.29</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-490.586000</v>
+        <v>-490.58600000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>74146.730331</v>
+        <v>74146.730330999999</v>
       </c>
       <c r="BT20" s="1">
         <v>20.596314</v>
       </c>
       <c r="BU20" s="1">
-        <v>1341.190000</v>
+        <v>1341.19</v>
       </c>
       <c r="BV20" s="1">
-        <v>-686.444000</v>
+        <v>-686.44399999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>74157.917590</v>
+        <v>74157.917589999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>20.599422</v>
+        <v>20.599422000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1476.610000</v>
+        <v>1476.61</v>
       </c>
       <c r="CA20" s="1">
-        <v>-894.786000</v>
+        <v>-894.78599999999994</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>74170.544741</v>
+        <v>74170.544741000005</v>
       </c>
       <c r="CD20" s="1">
         <v>20.602929</v>
       </c>
       <c r="CE20" s="1">
-        <v>1827.050000</v>
+        <v>1827.05</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1387.430000</v>
+        <v>-1387.43</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>73995.402412</v>
+        <v>73995.402411999996</v>
       </c>
       <c r="B21" s="1">
         <v>20.554278</v>
       </c>
       <c r="C21" s="1">
-        <v>902.284000</v>
+        <v>902.28399999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.408000</v>
+        <v>-195.40799999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>74006.248928</v>
+        <v>74006.248928000001</v>
       </c>
       <c r="G21" s="1">
-        <v>20.557291</v>
+        <v>20.557290999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>919.863000</v>
+        <v>919.86300000000006</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.096000</v>
+        <v>-166.096</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>74016.757666</v>
+        <v>74016.757666000005</v>
       </c>
       <c r="L21" s="1">
-        <v>20.560210</v>
+        <v>20.560210000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>943.210000</v>
+        <v>943.21</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.669000</v>
+        <v>-119.669</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>74027.320467</v>
+        <v>74027.320466999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>20.563145</v>
+        <v>20.563144999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>950.476000</v>
+        <v>950.476</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.802000</v>
+        <v>-103.80200000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>74037.523669</v>
+        <v>74037.523669000002</v>
       </c>
       <c r="V21" s="1">
-        <v>20.565979</v>
+        <v>20.565978999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>957.687000</v>
+        <v>957.68700000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.108000</v>
+        <v>-89.108000000000004</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>74047.749223</v>
+        <v>74047.749223000006</v>
       </c>
       <c r="AA21" s="1">
-        <v>20.568819</v>
+        <v>20.568819000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>965.210000</v>
+        <v>965.21</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.568200</v>
+        <v>-77.568200000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>74058.211839</v>
+        <v>74058.211838999996</v>
       </c>
       <c r="AF21" s="1">
-        <v>20.571726</v>
+        <v>20.571726000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>970.216000</v>
+        <v>970.21600000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.240100</v>
+        <v>-75.240099999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>74068.458652</v>
+        <v>74068.458652000001</v>
       </c>
       <c r="AK21" s="1">
         <v>20.574572</v>
       </c>
       <c r="AL21" s="1">
-        <v>977.642000</v>
+        <v>977.64200000000005</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.777800</v>
+        <v>-79.777799999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>74079.714861</v>
       </c>
       <c r="AP21" s="1">
-        <v>20.577699</v>
+        <v>20.577698999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>985.839000</v>
+        <v>985.83900000000006</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.181900</v>
+        <v>-91.181899999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>74090.849550</v>
+        <v>74090.849549999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>20.580792</v>
+        <v>20.580791999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>995.781000</v>
+        <v>995.78099999999995</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.628000</v>
+        <v>-108.628</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>74101.819072</v>
+        <v>74101.819071999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>20.583839</v>
+        <v>20.583839000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.161000</v>
+        <v>-124.161</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>74113.174977</v>
+        <v>74113.174977000002</v>
       </c>
       <c r="BE21" s="1">
         <v>20.586993</v>
       </c>
       <c r="BF21" s="1">
-        <v>1043.080000</v>
+        <v>1043.08</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.468000</v>
+        <v>-195.46799999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>74124.501619</v>
+        <v>74124.501619000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>20.590139</v>
+        <v>20.590139000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1110.310000</v>
+        <v>1110.31</v>
       </c>
       <c r="BL21" s="1">
-        <v>-310.587000</v>
+        <v>-310.58699999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>74135.820851</v>
+        <v>74135.820850999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>20.593284</v>
+        <v>20.593284000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1219.300000</v>
+        <v>1219.3</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-490.597000</v>
+        <v>-490.59699999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>74147.156388</v>
+        <v>74147.156388000003</v>
       </c>
       <c r="BT21" s="1">
         <v>20.596432</v>
       </c>
       <c r="BU21" s="1">
-        <v>1341.150000</v>
+        <v>1341.15</v>
       </c>
       <c r="BV21" s="1">
-        <v>-686.383000</v>
+        <v>-686.38300000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>74158.342165</v>
+        <v>74158.342164999995</v>
       </c>
       <c r="BY21" s="1">
         <v>20.599539</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1476.530000</v>
+        <v>1476.53</v>
       </c>
       <c r="CA21" s="1">
-        <v>-894.739000</v>
+        <v>-894.73900000000003</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>74171.064581</v>
+        <v>74171.064580999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>20.603073</v>
+        <v>20.603072999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>1828.240000</v>
+        <v>1828.24</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1386.590000</v>
+        <v>-1386.59</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>73996.084445</v>
       </c>
@@ -5621,43 +6037,43 @@
         <v>20.554468</v>
       </c>
       <c r="C22" s="1">
-        <v>902.062000</v>
+        <v>902.06200000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-195.403000</v>
+        <v>-195.40299999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>74006.594142</v>
+        <v>74006.594142000002</v>
       </c>
       <c r="G22" s="1">
-        <v>20.557387</v>
+        <v>20.557386999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>919.650000</v>
+        <v>919.65</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.859000</v>
+        <v>-166.85900000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>74017.113297</v>
+        <v>74017.113297000004</v>
       </c>
       <c r="L22" s="1">
         <v>20.560309</v>
       </c>
       <c r="M22" s="1">
-        <v>943.031000</v>
+        <v>943.03099999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.575000</v>
+        <v>-119.575</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>74027.673123</v>
@@ -5666,964 +6082,964 @@
         <v>20.563243</v>
       </c>
       <c r="R22" s="1">
-        <v>950.455000</v>
+        <v>950.45500000000004</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.832000</v>
+        <v>-103.83199999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>74038.187334</v>
+        <v>74038.187334000002</v>
       </c>
       <c r="V22" s="1">
         <v>20.566163</v>
       </c>
       <c r="W22" s="1">
-        <v>957.654000</v>
+        <v>957.654</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.054700</v>
+        <v>-89.054699999999997</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>74048.420311</v>
+        <v>74048.420310999994</v>
       </c>
       <c r="AA22" s="1">
-        <v>20.569006</v>
+        <v>20.569006000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>965.199000</v>
+        <v>965.19899999999996</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.506300</v>
+        <v>-77.506299999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>74058.584299</v>
+        <v>74058.584298999995</v>
       </c>
       <c r="AF22" s="1">
-        <v>20.571829</v>
+        <v>20.571829000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>970.231000</v>
+        <v>970.23099999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.213800</v>
+        <v>-75.213800000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>74068.831644</v>
+        <v>74068.831644000005</v>
       </c>
       <c r="AK22" s="1">
-        <v>20.574675</v>
+        <v>20.574674999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>977.640000</v>
+        <v>977.64</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.789200</v>
+        <v>-79.789199999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>74080.075981</v>
+        <v>74080.075981000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>20.577799</v>
+        <v>20.577798999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>985.850000</v>
+        <v>985.85</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.165900</v>
+        <v>-91.165899999999993</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>74091.211005</v>
+        <v>74091.211005000005</v>
       </c>
       <c r="AU22" s="1">
-        <v>20.580892</v>
+        <v>20.580891999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>995.779000</v>
+        <v>995.779</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.641000</v>
+        <v>-108.64100000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>74102.196033</v>
       </c>
       <c r="AZ22" s="1">
-        <v>20.583943</v>
+        <v>20.583943000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.130000</v>
+        <v>1004.13</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.158000</v>
+        <v>-124.158</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>74113.604544</v>
+        <v>74113.604544000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>20.587112</v>
+        <v>20.587112000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1043.060000</v>
+        <v>1043.06</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.464000</v>
+        <v>-195.464</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>74124.826994</v>
+        <v>74124.826994000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>20.590230</v>
+        <v>20.590229999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1110.300000</v>
+        <v>1110.3</v>
       </c>
       <c r="BL22" s="1">
-        <v>-310.578000</v>
+        <v>-310.57799999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>74136.202739</v>
       </c>
       <c r="BO22" s="1">
-        <v>20.593390</v>
+        <v>20.593389999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1219.270000</v>
+        <v>1219.27</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-490.610000</v>
+        <v>-490.61</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>74147.570084</v>
+        <v>74147.570084000006</v>
       </c>
       <c r="BT22" s="1">
-        <v>20.596547</v>
+        <v>20.596547000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1341.150000</v>
+        <v>1341.15</v>
       </c>
       <c r="BV22" s="1">
-        <v>-686.454000</v>
+        <v>-686.45399999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>74158.757845</v>
       </c>
       <c r="BY22" s="1">
-        <v>20.599655</v>
+        <v>20.599654999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1476.550000</v>
+        <v>1476.55</v>
       </c>
       <c r="CA22" s="1">
-        <v>-894.789000</v>
+        <v>-894.78899999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>74171.584854</v>
+        <v>74171.584854000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>20.603218</v>
+        <v>20.603217999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>1828.410000</v>
+        <v>1828.41</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1386.610000</v>
+        <v>-1386.61</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>73996.427675</v>
+        <v>73996.427674999999</v>
       </c>
       <c r="B23" s="1">
-        <v>20.554563</v>
+        <v>20.554563000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>902.039000</v>
+        <v>902.03899999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-195.510000</v>
+        <v>-195.51</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>74006.938365</v>
+        <v>74006.938364999995</v>
       </c>
       <c r="G23" s="1">
-        <v>20.557483</v>
+        <v>20.557483000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>919.317000</v>
+        <v>919.31700000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-166.587000</v>
+        <v>-166.58699999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>74017.458512</v>
+        <v>74017.458511999997</v>
       </c>
       <c r="L23" s="1">
-        <v>20.560405</v>
+        <v>20.560404999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>943.104000</v>
+        <v>943.10400000000004</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.727000</v>
+        <v>-119.727</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>74028.336306</v>
+        <v>74028.336305999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>20.563427</v>
+        <v>20.563427000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>950.404000</v>
+        <v>950.404</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.882000</v>
+        <v>-103.88200000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>74038.554852</v>
+        <v>74038.554852000001</v>
       </c>
       <c r="V23" s="1">
-        <v>20.566265</v>
+        <v>20.566265000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>957.518000</v>
+        <v>957.51800000000003</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.097500</v>
+        <v>-89.097499999999997</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>74048.798374</v>
+        <v>74048.798374000005</v>
       </c>
       <c r="AA23" s="1">
-        <v>20.569111</v>
+        <v>20.569110999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>965.216000</v>
+        <v>965.21600000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.499800</v>
+        <v>-77.499799999999993</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>74058.928521</v>
+        <v>74058.928520999994</v>
       </c>
       <c r="AF23" s="1">
         <v>20.571925</v>
       </c>
       <c r="AG23" s="1">
-        <v>970.186000</v>
+        <v>970.18600000000004</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.257400</v>
+        <v>-75.257400000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>74069.178844</v>
+        <v>74069.178843999995</v>
       </c>
       <c r="AK23" s="1">
-        <v>20.574772</v>
+        <v>20.574771999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>977.660000</v>
+        <v>977.66</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.804700</v>
+        <v>-79.804699999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>74080.436542</v>
+        <v>74080.436541999996</v>
       </c>
       <c r="AP23" s="1">
-        <v>20.577899</v>
+        <v>20.577898999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>985.859000</v>
+        <v>985.85900000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.176500</v>
+        <v>-91.176500000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>74091.637695</v>
+        <v>74091.637694999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>20.581010</v>
+        <v>20.581009999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>995.805000</v>
+        <v>995.80499999999995</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.626000</v>
+        <v>-108.626</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>74102.914276</v>
+        <v>74102.914275999996</v>
       </c>
       <c r="AZ23" s="1">
-        <v>20.584143</v>
+        <v>20.584143000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.162000</v>
+        <v>-124.16200000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>74113.895168</v>
+        <v>74113.895168000003</v>
       </c>
       <c r="BE23" s="1">
-        <v>20.587193</v>
+        <v>20.587192999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1043.060000</v>
+        <v>1043.06</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.458000</v>
+        <v>-195.458</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>74125.215361</v>
+        <v>74125.215360999995</v>
       </c>
       <c r="BJ23" s="1">
-        <v>20.590338</v>
+        <v>20.590337999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1110.310000</v>
+        <v>1110.31</v>
       </c>
       <c r="BL23" s="1">
-        <v>-310.547000</v>
+        <v>-310.54700000000003</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>74136.624338</v>
+        <v>74136.624337999994</v>
       </c>
       <c r="BO23" s="1">
-        <v>20.593507</v>
+        <v>20.593506999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1219.280000</v>
+        <v>1219.28</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-490.620000</v>
+        <v>-490.62</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>74148.002069</v>
+        <v>74148.002068999995</v>
       </c>
       <c r="BT23" s="1">
         <v>20.596667</v>
       </c>
       <c r="BU23" s="1">
-        <v>1341.090000</v>
+        <v>1341.09</v>
       </c>
       <c r="BV23" s="1">
-        <v>-686.454000</v>
+        <v>-686.45399999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>74159.206693</v>
       </c>
       <c r="BY23" s="1">
-        <v>20.599780</v>
+        <v>20.599779999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1476.550000</v>
+        <v>1476.55</v>
       </c>
       <c r="CA23" s="1">
-        <v>-894.815000</v>
+        <v>-894.81500000000005</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>74172.130984</v>
+        <v>74172.130984000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>20.603370</v>
+        <v>20.603370000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1827.430000</v>
+        <v>1827.43</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1387.550000</v>
+        <v>-1387.55</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>73996.769590</v>
+        <v>73996.769589999996</v>
       </c>
       <c r="B24" s="1">
         <v>20.554658</v>
       </c>
       <c r="C24" s="1">
-        <v>902.050000</v>
+        <v>902.05</v>
       </c>
       <c r="D24" s="1">
-        <v>-195.436000</v>
+        <v>-195.43600000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>74007.603500</v>
+        <v>74007.603499999997</v>
       </c>
       <c r="G24" s="1">
         <v>20.557668</v>
       </c>
       <c r="H24" s="1">
-        <v>919.127000</v>
+        <v>919.12699999999995</v>
       </c>
       <c r="I24" s="1">
-        <v>-166.565000</v>
+        <v>-166.565</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>74018.117562</v>
+        <v>74018.117561999999</v>
       </c>
       <c r="L24" s="1">
-        <v>20.560588</v>
+        <v>20.560587999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>943.165000</v>
+        <v>943.16499999999996</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.701000</v>
+        <v>-119.70099999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>74028.720209</v>
+        <v>74028.720209000006</v>
       </c>
       <c r="Q24" s="1">
         <v>20.563533</v>
       </c>
       <c r="R24" s="1">
-        <v>950.378000</v>
+        <v>950.37800000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.841000</v>
+        <v>-103.84099999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>74038.897588</v>
+        <v>74038.897588000007</v>
       </c>
       <c r="V24" s="1">
-        <v>20.566360</v>
+        <v>20.56636</v>
       </c>
       <c r="W24" s="1">
-        <v>957.648000</v>
+        <v>957.64800000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.988700</v>
+        <v>-88.988699999999994</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>74049.146917</v>
+        <v>74049.146917000005</v>
       </c>
       <c r="AA24" s="1">
-        <v>20.569207</v>
+        <v>20.569206999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>965.328000</v>
+        <v>965.32799999999997</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.449900</v>
+        <v>-77.4499</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>74059.272250</v>
+        <v>74059.272249999995</v>
       </c>
       <c r="AF24" s="1">
-        <v>20.572020</v>
+        <v>20.572019999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>970.222000</v>
+        <v>970.22199999999998</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.251100</v>
+        <v>-75.251099999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>74069.835584</v>
       </c>
       <c r="AK24" s="1">
-        <v>20.574954</v>
+        <v>20.574954000000002</v>
       </c>
       <c r="AL24" s="1">
-        <v>977.665000</v>
+        <v>977.66499999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.778400</v>
+        <v>-79.778400000000005</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>74080.863100</v>
+        <v>74080.863100000002</v>
       </c>
       <c r="AP24" s="1">
         <v>20.578018</v>
       </c>
       <c r="AQ24" s="1">
-        <v>985.851000</v>
+        <v>985.851</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.184100</v>
+        <v>-91.184100000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>74091.943730</v>
+        <v>74091.943729999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>20.581095</v>
+        <v>20.581095000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>995.780000</v>
+        <v>995.78</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.643000</v>
+        <v>-108.643</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>74103.272878</v>
+        <v>74103.272878000003</v>
       </c>
       <c r="AZ24" s="1">
         <v>20.584242</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.130000</v>
+        <v>1004.13</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.159000</v>
+        <v>-124.15900000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>74114.256785</v>
+        <v>74114.256785000005</v>
       </c>
       <c r="BE24" s="1">
         <v>20.587294</v>
       </c>
       <c r="BF24" s="1">
-        <v>1043.050000</v>
+        <v>1043.05</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.453000</v>
+        <v>-195.453</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>74125.591228</v>
+        <v>74125.591228000005</v>
       </c>
       <c r="BJ24" s="1">
-        <v>20.590442</v>
+        <v>20.590441999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1110.310000</v>
+        <v>1110.31</v>
       </c>
       <c r="BL24" s="1">
-        <v>-310.587000</v>
+        <v>-310.58699999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>74137.442737</v>
+        <v>74137.442737000005</v>
       </c>
       <c r="BO24" s="1">
-        <v>20.593734</v>
+        <v>20.593734000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1219.310000</v>
+        <v>1219.31</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-490.592000</v>
+        <v>-490.59199999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>74148.429122</v>
+        <v>74148.429122000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>20.596786</v>
+        <v>20.596786000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1341.090000</v>
+        <v>1341.09</v>
       </c>
       <c r="BV24" s="1">
-        <v>-686.516000</v>
+        <v>-686.51599999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>74159.628293</v>
+        <v>74159.628293000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>20.599897</v>
+        <v>20.599896999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1476.530000</v>
+        <v>1476.53</v>
       </c>
       <c r="CA24" s="1">
-        <v>-894.699000</v>
+        <v>-894.69899999999996</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>74172.661699</v>
+        <v>74172.661699000004</v>
       </c>
       <c r="CD24" s="1">
         <v>20.603517</v>
       </c>
       <c r="CE24" s="1">
-        <v>1828.110000</v>
+        <v>1828.11</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1386.400000</v>
+        <v>-1386.4</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>73997.420138</v>
+        <v>73997.420138000001</v>
       </c>
       <c r="B25" s="1">
-        <v>20.554839</v>
+        <v>20.554839000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>902.186000</v>
+        <v>902.18600000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-195.391000</v>
+        <v>-195.39099999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>74007.973022</v>
+        <v>74007.973022000006</v>
       </c>
       <c r="G25" s="1">
-        <v>20.557770</v>
+        <v>20.557770000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>919.523000</v>
+        <v>919.52300000000002</v>
       </c>
       <c r="I25" s="1">
-        <v>-166.276000</v>
+        <v>-166.27600000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>74018.491182</v>
+        <v>74018.491181999998</v>
       </c>
       <c r="L25" s="1">
         <v>20.560692</v>
       </c>
       <c r="M25" s="1">
-        <v>943.126000</v>
+        <v>943.12599999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.580000</v>
+        <v>-119.58</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>74029.070353</v>
+        <v>74029.070353000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.563631</v>
+        <v>20.563631000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>950.364000</v>
+        <v>950.36400000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.848000</v>
+        <v>-103.848</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>74039.241811</v>
       </c>
       <c r="V25" s="1">
-        <v>20.566456</v>
+        <v>20.566455999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>957.604000</v>
+        <v>957.60400000000004</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.085900</v>
+        <v>-89.085899999999995</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>74049.492661</v>
+        <v>74049.492660999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>20.569304</v>
+        <v>20.569303999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>965.232000</v>
+        <v>965.23199999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.497200</v>
+        <v>-77.497200000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>74059.689907</v>
+        <v>74059.689907000007</v>
       </c>
       <c r="AF25" s="1">
         <v>20.572136</v>
       </c>
       <c r="AG25" s="1">
-        <v>970.223000</v>
+        <v>970.22299999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.256600</v>
+        <v>-75.256600000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>74070.225402</v>
+        <v>74070.225401999996</v>
       </c>
       <c r="AK25" s="1">
         <v>20.575063</v>
       </c>
       <c r="AL25" s="1">
-        <v>977.644000</v>
+        <v>977.64400000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.766700</v>
+        <v>-79.7667</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>74081.153756</v>
       </c>
       <c r="AP25" s="1">
-        <v>20.578098</v>
+        <v>20.578098000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>985.866000</v>
+        <v>985.86599999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.176100</v>
+        <v>-91.176100000000005</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>74092.304812</v>
+        <v>74092.304812000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>20.581196</v>
+        <v>20.581195999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>995.796000</v>
+        <v>995.79600000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.630000</v>
+        <v>-108.63</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>74103.631987</v>
+        <v>74103.631987000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>20.584342</v>
+        <v>20.584341999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.130000</v>
+        <v>1004.13</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.153000</v>
+        <v>-124.15300000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>74114.615887</v>
+        <v>74114.615887000007</v>
       </c>
       <c r="BE25" s="1">
-        <v>20.587393</v>
+        <v>20.587392999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1043.040000</v>
+        <v>1043.04</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.459000</v>
+        <v>-195.459</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>74126.341280</v>
+        <v>74126.341279999993</v>
       </c>
       <c r="BJ25" s="1">
-        <v>20.590650</v>
+        <v>20.59065</v>
       </c>
       <c r="BK25" s="1">
-        <v>1110.270000</v>
+        <v>1110.27</v>
       </c>
       <c r="BL25" s="1">
-        <v>-310.581000</v>
+        <v>-310.58100000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>74137.864833</v>
       </c>
       <c r="BO25" s="1">
-        <v>20.593851</v>
+        <v>20.593851000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1219.320000</v>
+        <v>1219.32</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-490.612000</v>
+        <v>-490.61200000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>74148.837330</v>
+        <v>74148.837329999995</v>
       </c>
       <c r="BT25" s="1">
-        <v>20.596899</v>
+        <v>20.596899000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1341.070000</v>
+        <v>1341.07</v>
       </c>
       <c r="BV25" s="1">
-        <v>-686.447000</v>
+        <v>-686.447</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>74160.052373</v>
+        <v>74160.052372999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>20.600015</v>
+        <v>20.600014999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1476.600000</v>
+        <v>1476.6</v>
       </c>
       <c r="CA25" s="1">
-        <v>-894.600000</v>
+        <v>-894.6</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>74173.491511</v>
@@ -6632,272 +7048,273 @@
         <v>20.603748</v>
       </c>
       <c r="CE25" s="1">
-        <v>1826.900000</v>
+        <v>1826.9</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1385.940000</v>
+        <v>-1385.94</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>73997.795114</v>
+        <v>73997.795113999993</v>
       </c>
       <c r="B26" s="1">
-        <v>20.554943</v>
+        <v>20.554943000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>902.236000</v>
+        <v>902.23599999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.328000</v>
+        <v>-195.328</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>74008.319263</v>
+        <v>74008.319262999998</v>
       </c>
       <c r="G26" s="1">
-        <v>20.557866</v>
+        <v>20.557866000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>919.248000</v>
+        <v>919.24800000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.691000</v>
+        <v>-166.691</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>74018.846318</v>
+        <v>74018.846317999996</v>
       </c>
       <c r="L26" s="1">
-        <v>20.560791</v>
+        <v>20.560790999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>943.198000</v>
+        <v>943.19799999999998</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.537000</v>
+        <v>-119.53700000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>74029.421520</v>
+        <v>74029.421520000004</v>
       </c>
       <c r="Q26" s="1">
-        <v>20.563728</v>
+        <v>20.563728000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>950.406000</v>
+        <v>950.40599999999995</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.849000</v>
+        <v>-103.849</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>74039.673331</v>
+        <v>74039.673330999998</v>
       </c>
       <c r="V26" s="1">
-        <v>20.566576</v>
+        <v>20.566576000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>957.600000</v>
+        <v>957.6</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.018100</v>
+        <v>-89.018100000000004</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>74049.923685</v>
+        <v>74049.923685000002</v>
       </c>
       <c r="AA26" s="1">
         <v>20.569423</v>
       </c>
       <c r="AB26" s="1">
-        <v>965.322000</v>
+        <v>965.322</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.486000</v>
+        <v>-77.486000000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>74059.970615</v>
+        <v>74059.970614999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>20.572214</v>
+        <v>20.572213999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>970.224000</v>
+        <v>970.22400000000005</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.187500</v>
+        <v>-75.1875</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>74070.569626</v>
+        <v>74070.569625999997</v>
       </c>
       <c r="AK26" s="1">
-        <v>20.575158</v>
+        <v>20.575157999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>977.666000</v>
+        <v>977.66600000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.778400</v>
+        <v>-79.778400000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>74081.515867</v>
+        <v>74081.515866999995</v>
       </c>
       <c r="AP26" s="1">
-        <v>20.578199</v>
+        <v>20.578199000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>985.853000</v>
+        <v>985.85299999999995</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.166500</v>
+        <v>-91.166499999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>74092.669374</v>
+        <v>74092.669374000005</v>
       </c>
       <c r="AU26" s="1">
-        <v>20.581297</v>
+        <v>20.581296999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>995.784000</v>
+        <v>995.78399999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.620000</v>
+        <v>-108.62</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>74104.348670</v>
+        <v>74104.348670000007</v>
       </c>
       <c r="AZ26" s="1">
-        <v>20.584541</v>
+        <v>20.584541000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.120000</v>
+        <v>1004.12</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.146000</v>
+        <v>-124.146</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>74115.342217</v>
+        <v>74115.342216999998</v>
       </c>
       <c r="BE26" s="1">
         <v>20.587595</v>
       </c>
       <c r="BF26" s="1">
-        <v>1043.040000</v>
+        <v>1043.04</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.460000</v>
+        <v>-195.46</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>74126.716290</v>
+        <v>74126.716289999997</v>
       </c>
       <c r="BJ26" s="1">
-        <v>20.590755</v>
+        <v>20.590755000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1110.300000</v>
+        <v>1110.3</v>
       </c>
       <c r="BL26" s="1">
-        <v>-310.562000</v>
+        <v>-310.56200000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>74138.257665</v>
+        <v>74138.257664999997</v>
       </c>
       <c r="BO26" s="1">
-        <v>20.593960</v>
+        <v>20.593959999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1219.300000</v>
+        <v>1219.3</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-490.616000</v>
+        <v>-490.61599999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>74149.273314</v>
+        <v>74149.273314000005</v>
       </c>
       <c r="BT26" s="1">
-        <v>20.597020</v>
+        <v>20.597020000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1341.070000</v>
+        <v>1341.07</v>
       </c>
       <c r="BV26" s="1">
-        <v>-686.507000</v>
+        <v>-686.50699999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>74160.817203</v>
+        <v>74160.817202999999</v>
       </c>
       <c r="BY26" s="1">
         <v>20.600227</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1476.570000</v>
+        <v>1476.57</v>
       </c>
       <c r="CA26" s="1">
-        <v>-894.879000</v>
+        <v>-894.87900000000002</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>74173.699330</v>
+        <v>74173.699330000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>20.603805</v>
+        <v>20.603805000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1826.990000</v>
+        <v>1826.99</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1387.540000</v>
+        <v>-1387.54</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>